--- a/QuantLibXL/Data2/XLS/RMB_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/RMB_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="15300" windowHeight="7815" tabRatio="723"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12015" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="172">
   <si>
     <t>Currency</t>
   </si>
@@ -623,6 +623,9 @@
   <si>
     <t>7DND</t>
   </si>
+  <si>
+    <t>7DCOLLREPO</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1447,6 +1450,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="22" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="22" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="22" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="22" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -1467,7 +1501,21 @@
     <cellStyle name="Valuta (0)_AZIONI" xfId="8"/>
     <cellStyle name="Valuta_AZIONI" xfId="9"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1612,94 +1660,100 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
         <stp/>
-        <stp>{95639F66-12FC-4112-942B-8C823C9429FF}</stp>
+        <stp>{7AE3D8BC-16B4-4DEE-BFA2-B42C92A847FF}</stp>
+        <tr r="M4" s="73"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:10</v>
+        <stp/>
+        <stp>{22573EF1-FAD4-433B-B00D-8166546669A7}</stp>
+        <tr r="M4" s="78"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:09</v>
+        <stp/>
+        <stp>{0AD8F1CE-5E9F-4BF5-88B5-40C952070A4F}</stp>
+        <tr r="M4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:10</v>
+        <stp/>
+        <stp>{2638C95A-BA4F-4D7A-8EE5-BA9E2727ECC9}</stp>
+        <tr r="G2" s="70"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:09</v>
+        <stp/>
+        <stp>{D4ABA58B-53EB-43C4-AA55-3B8631EDB787}</stp>
+        <tr r="M4" s="75"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:10</v>
+        <stp/>
+        <stp>{B396375B-412F-4E81-86D1-E47BE86CAE6E}</stp>
+        <tr r="M4" s="76"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:41:46</v>
+        <stp/>
+        <stp>{DE0EFB49-ED16-46B0-9998-7716AAB2BC09}</stp>
+        <tr r="N5" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:10</v>
+        <stp/>
+        <stp>{86F2DE38-B74B-45DB-9008-DE73B59F5734}</stp>
+        <tr r="G2" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:38:46</v>
+        <stp/>
+        <stp>{34D95149-3FD9-4C3E-B96E-F4FE0EDCD759}</stp>
+        <tr r="N6" s="66"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:26:10</v>
+        <stp/>
+        <stp>{9DA09CAA-F961-45BF-8C40-7F9E0F6B49C1}</stp>
         <tr r="M4" s="77"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:38:25</v>
         <stp/>
-        <stp>{25A73CD1-E77F-4860-B972-FE0CCE6DA711}</stp>
-        <tr r="N5" s="66"/>
+        <stp>{A2538979-27E0-4CC2-B591-82FF1207C400}</stp>
+        <tr r="N2" s="66"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:41:47</v>
         <stp/>
-        <stp>{C860802C-FF65-40AA-AAF0-D9E218F749BD}</stp>
-        <tr r="M4" s="73"/>
+        <stp>{BC567F7A-FD6A-4C23-A3C2-373E2EF714C8}</stp>
+        <tr r="N3" s="66"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:41:47</v>
         <stp/>
-        <stp>{BA44415E-779E-4C3B-B202-6D9EDAE0FFF7}</stp>
-        <tr r="M4" s="75"/>
+        <stp>{9C2088C8-CA95-477F-BACD-35A928A77274}</stp>
+        <tr r="N4" s="66"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
         <stp/>
-        <stp>{8FCBE095-B9D0-4B13-90FD-44571062678C}</stp>
-        <tr r="M4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{E80937B8-8344-4BBE-B198-D0C2037F5307}</stp>
-        <tr r="M4" s="76"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{E6BC0E84-FF6D-4128-9B01-6125F1D438CF}</stp>
+        <stp>{3EEAF0EA-754D-41F6-B13B-6C75CF2B581A}</stp>
         <tr r="I4" s="71"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
         <stp/>
-        <stp>{711F772D-0973-4DBA-9160-7C9C801A6FF4}</stp>
+        <stp>{AEA0C91B-9AF4-4E58-86E1-575E85F80028}</stp>
         <tr r="I4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
         <stp/>
-        <stp>{6FF14BE5-AF29-4E3A-BAE0-806EF0EAACC4}</stp>
+        <stp>{662DAF96-C655-4C1B-A7F5-E60CC6794EB6}</stp>
         <tr r="M4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{17EECE62-8E65-45E7-A1BC-7A3CBC6F4102}</stp>
-        <tr r="G2" s="70"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{4C08D3ED-2604-477E-8BC5-67720C91A99C}</stp>
-        <tr r="G2" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{4D3FC40D-B5F6-44C2-AB24-2AD85B89A714}</stp>
-        <tr r="N3" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{4A9E347E-DB39-4AEC-B1CF-FB190F7CA4AD}</stp>
-        <tr r="M4" s="78"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{B000AF6D-6416-4952-9B5E-CD8419370512}</stp>
-        <tr r="N2" s="66"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:24:56</v>
-        <stp/>
-        <stp>{FD9FD20F-0E5B-4E00-9E06-25C0A14F95D0}</stp>
-        <tr r="N4" s="66"/>
       </tp>
     </main>
   </volType>
@@ -2096,8 +2150,8 @@
         <v>110</v>
       </c>
       <c r="D7" s="17">
-        <f>_xll.ohTrigger(Fixings!Q8:Q28)</f>
-        <v>2</v>
+        <f>_xll.ohTrigger(Fixings!Q9:Q33)</f>
+        <v>18</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="2"/>
@@ -2206,7 +2260,7 @@
       </c>
       <c r="D14" s="24">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="E14" s="9"/>
       <c r="G14" s="2"/>
@@ -2354,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="50">
-        <v>41901.766250000001</v>
+        <v>41904.642893518518</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2447,22 +2501,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3 I26">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2577,7 +2631,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -2625,7 +2679,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS1M_Quote#0001</v>
+        <v>CNYAMOS1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2675,9 +2729,9 @@
         <f t="array" ref="V5:V42">QuoteLive</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="W5" s="156" t="e">
+      <c r="W5" s="156">
         <f>_xll.qlSimpleQuoteSetValue(F5,V5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X5" s="80"/>
       <c r="AD5" s="122"/>
@@ -2699,7 +2753,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS3M_Quote#0001</v>
+        <v>CNYAMOS3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2747,9 +2801,9 @@
       <c r="V6" s="157">
         <v>2.9000000000000004</v>
       </c>
-      <c r="W6" s="157" t="e">
+      <c r="W6" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F6,V6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X6" s="80"/>
       <c r="AA6" s="141"/>
@@ -2772,7 +2826,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS6M_Quote#0001</v>
+        <v>CNYAMOS6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2820,9 +2874,9 @@
       <c r="V7" s="157">
         <v>3</v>
       </c>
-      <c r="W7" s="157" t="e">
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -2846,7 +2900,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS9M_Quote#0001</v>
+        <v>CNYAMOS9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2894,9 +2948,9 @@
       <c r="V8" s="157">
         <v>3</v>
       </c>
-      <c r="W8" s="157" t="e">
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -2920,7 +2974,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS1Y_Quote#0001</v>
+        <v>CNYAMOS1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2968,9 +3022,9 @@
       <c r="V9" s="157">
         <v>3.0300000000000002</v>
       </c>
-      <c r="W9" s="157" t="e">
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -2992,7 +3046,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS2Y_Quote#0001</v>
+        <v>CNYAMOS2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3040,9 +3094,9 @@
       <c r="V10" s="157">
         <v>3.04</v>
       </c>
-      <c r="W10" s="157" t="e">
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -3064,7 +3118,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS3Y_Quote#0001</v>
+        <v>CNYAMOS3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3112,9 +3166,9 @@
       <c r="V11" s="157">
         <v>3.0599999999999996</v>
       </c>
-      <c r="W11" s="157" t="e">
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -3136,7 +3190,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS4Y_Quote#0001</v>
+        <v>CNYAMOS4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3208,7 +3262,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS5Y_Quote#0001</v>
+        <v>CNYAMOS5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3280,7 +3334,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS6Y_Quote#0001</v>
+        <v>CNYAMOS6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3352,7 +3406,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS7Y_Quote#0001</v>
+        <v>CNYAMOS7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3424,7 +3478,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS8Y_Quote#0001</v>
+        <v>CNYAMOS8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3496,7 +3550,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS9Y_Quote#0001</v>
+        <v>CNYAMOS9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3568,7 +3622,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS10Y_Quote#0001</v>
+        <v>CNYAMOS10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3640,7 +3694,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS11Y_Quote#0001</v>
+        <v>CNYAMOS11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3712,7 +3766,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS12Y_Quote#0001</v>
+        <v>CNYAMOS12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3784,7 +3838,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS13Y_Quote#0001</v>
+        <v>CNYAMOS13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3856,7 +3910,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS14Y_Quote#0001</v>
+        <v>CNYAMOS14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3928,7 +3982,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS15Y_Quote#0001</v>
+        <v>CNYAMOS15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4000,7 +4054,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS16Y_Quote#0001</v>
+        <v>CNYAMOS16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -4072,7 +4126,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS17Y_Quote#0001</v>
+        <v>CNYAMOS17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -4144,7 +4198,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS18Y_Quote#0001</v>
+        <v>CNYAMOS18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -4216,7 +4270,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS19Y_Quote#0001</v>
+        <v>CNYAMOS19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -4288,7 +4342,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS20Y_Quote#0001</v>
+        <v>CNYAMOS20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -4360,7 +4414,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS21Y_Quote#0001</v>
+        <v>CNYAMOS21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -4432,7 +4486,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS22Y_Quote#0001</v>
+        <v>CNYAMOS22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -4504,7 +4558,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS23Y_Quote#0001</v>
+        <v>CNYAMOS23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -4576,7 +4630,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS24Y_Quote#0001</v>
+        <v>CNYAMOS24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4648,7 +4702,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS25Y_Quote#0001</v>
+        <v>CNYAMOS25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4720,7 +4774,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS26Y_Quote#0001</v>
+        <v>CNYAMOS26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4792,7 +4846,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS27Y_Quote#0001</v>
+        <v>CNYAMOS27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4864,7 +4918,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS28Y_Quote#0001</v>
+        <v>CNYAMOS28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4936,7 +4990,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS29Y_Quote#0001</v>
+        <v>CNYAMOS29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5008,7 +5062,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS30Y_Quote#0001</v>
+        <v>CNYAMOS30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5080,7 +5134,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS35Y_Quote#0001</v>
+        <v>CNYAMOS35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5152,7 +5206,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS40Y_Quote#0001</v>
+        <v>CNYAMOS40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5224,7 +5278,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS50Y_Quote#0001</v>
+        <v>CNYAMOS50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -5296,7 +5350,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAMOS60Y_Quote#0001</v>
+        <v>CNYAMOS60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -5465,7 +5519,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -5513,7 +5567,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(E5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S1M_Quote#0001</v>
+        <v>CNYQM3S1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5586,7 +5640,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(E6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S3M_Quote#0001</v>
+        <v>CNYQM3S3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5610,10 +5664,10 @@
         <v>CNYQM3S3MN=TRHK</v>
       </c>
       <c r="N6" s="157">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="O6" s="157">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="P6" s="157">
         <v>0</v>
@@ -5623,7 +5677,7 @@
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R42" si="2">AVERAGE($N6,$O6)</f>
-        <v>4.6099999999999994</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S6" s="120"/>
       <c r="T6" s="157">
@@ -5631,11 +5685,11 @@
       </c>
       <c r="U6" s="120"/>
       <c r="V6" s="157">
-        <v>4.6099999999999994</v>
-      </c>
-      <c r="W6" s="157" t="e">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W6" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F6,V6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X6" s="80"/>
       <c r="AA6" s="141"/>
@@ -5658,7 +5712,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(E7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S6M_Quote#0001</v>
+        <v>CNYQM3S6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5705,9 +5759,9 @@
       <c r="V7" s="157">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W7" s="157" t="e">
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -5731,7 +5785,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(E8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S9M_Quote#0001</v>
+        <v>CNYQM3S9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5778,9 +5832,9 @@
       <c r="V8" s="157">
         <v>4.3499999999999996</v>
       </c>
-      <c r="W8" s="157" t="e">
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -5804,7 +5858,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(E9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S1Y_Quote#0001</v>
+        <v>CNYQM3S1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -5851,9 +5905,9 @@
       <c r="V9" s="157">
         <v>4.25</v>
       </c>
-      <c r="W9" s="157" t="e">
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -5875,7 +5929,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(E10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S2Y_Quote#0001</v>
+        <v>CNYQM3S2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5922,9 +5976,9 @@
       <c r="V10" s="157">
         <v>4.18</v>
       </c>
-      <c r="W10" s="157" t="e">
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -5946,7 +6000,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(E11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S3Y_Quote#0001</v>
+        <v>CNYQM3S3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5993,9 +6047,9 @@
       <c r="V11" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W11" s="157" t="e">
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -6017,7 +6071,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(E12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S4Y_Quote#0001</v>
+        <v>CNYQM3S4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6064,9 +6118,9 @@
       <c r="V12" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W12" s="157" t="e">
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -6088,7 +6142,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(E13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S5Y_Quote#0001</v>
+        <v>CNYQM3S5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6135,9 +6189,9 @@
       <c r="V13" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W13" s="157" t="e">
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -6159,7 +6213,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(E14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S6Y_Quote#0001</v>
+        <v>CNYQM3S6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6230,7 +6284,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(E15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S7Y_Quote#0001</v>
+        <v>CNYQM3S7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6277,9 +6331,9 @@
       <c r="V15" s="157">
         <v>4.18</v>
       </c>
-      <c r="W15" s="157" t="e">
+      <c r="W15" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X15" s="80"/>
       <c r="AD15" s="122"/>
@@ -6301,7 +6355,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(E16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S8Y_Quote#0001</v>
+        <v>CNYQM3S8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6372,7 +6426,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(E17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S9Y_Quote#0001</v>
+        <v>CNYQM3S9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6443,7 +6497,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(E18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S10Y_Quote#0001</v>
+        <v>CNYQM3S10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6490,9 +6544,9 @@
       <c r="V18" s="157">
         <v>4.2300000000000004</v>
       </c>
-      <c r="W18" s="157" t="e">
+      <c r="W18" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F18,V18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X18" s="80"/>
       <c r="AD18" s="122"/>
@@ -6514,7 +6568,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(E19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S11Y_Quote#0001</v>
+        <v>CNYQM3S11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6585,7 +6639,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(E20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S12Y_Quote#0001</v>
+        <v>CNYQM3S12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6656,7 +6710,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(E21,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S13Y_Quote#0001</v>
+        <v>CNYQM3S13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6727,7 +6781,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(E22,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S14Y_Quote#0001</v>
+        <v>CNYQM3S14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6798,7 +6852,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(E23,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S15Y_Quote#0001</v>
+        <v>CNYQM3S15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6869,7 +6923,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(E24,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S16Y_Quote#0001</v>
+        <v>CNYQM3S16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6940,7 +6994,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(E25,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S17Y_Quote#0001</v>
+        <v>CNYQM3S17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -7011,7 +7065,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(E26,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S18Y_Quote#0001</v>
+        <v>CNYQM3S18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -7082,7 +7136,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(E27,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S19Y_Quote#0001</v>
+        <v>CNYQM3S19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -7153,7 +7207,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(E28,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S20Y_Quote#0001</v>
+        <v>CNYQM3S20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -7224,7 +7278,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(E29,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S21Y_Quote#0001</v>
+        <v>CNYQM3S21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -7295,7 +7349,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(E30,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S22Y_Quote#0001</v>
+        <v>CNYQM3S22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7366,7 +7420,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(E31,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S23Y_Quote#0001</v>
+        <v>CNYQM3S23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7437,7 +7491,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(E32,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S24Y_Quote#0001</v>
+        <v>CNYQM3S24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7508,7 +7562,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(E33,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S25Y_Quote#0001</v>
+        <v>CNYQM3S25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7579,7 +7633,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(E34,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S26Y_Quote#0001</v>
+        <v>CNYQM3S26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7650,7 +7704,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(E35,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S27Y_Quote#0001</v>
+        <v>CNYQM3S27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7721,7 +7775,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(E36,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S28Y_Quote#0001</v>
+        <v>CNYQM3S28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7792,7 +7846,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(E37,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S29Y_Quote#0001</v>
+        <v>CNYQM3S29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7863,7 +7917,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(E38,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S30Y_Quote#0001</v>
+        <v>CNYQM3S30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7934,7 +7988,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(E39,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S35Y_Quote#0001</v>
+        <v>CNYQM3S35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -8005,7 +8059,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(E40,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S40Y_Quote#0001</v>
+        <v>CNYQM3S40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -8076,7 +8130,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(E41,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S50Y_Quote#0001</v>
+        <v>CNYQM3S50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -8147,7 +8201,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(E42,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM3S60Y_Quote#0001</v>
+        <v>CNYQM3S60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -8296,7 +8350,7 @@
       <c r="U3" s="80"/>
       <c r="W3" s="78">
         <f>_xll.ohTrigger(W5:W42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="80"/>
     </row>
@@ -8322,7 +8376,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -8370,7 +8424,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(E5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S1M_Quote#0001</v>
+        <v>CNHQM3S1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -8443,7 +8497,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(E6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S3M_Quote#0001</v>
+        <v>CNHQM3S3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -8515,7 +8569,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(E7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S6M_Quote#0001</v>
+        <v>CNHQM3S6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8562,9 +8616,9 @@
       <c r="V7" s="157">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W7" s="157" t="e">
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -8588,7 +8642,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(E8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S9M_Quote#0001</v>
+        <v>CNHQM3S9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -8635,9 +8689,9 @@
       <c r="V8" s="157">
         <v>4.3499999999999996</v>
       </c>
-      <c r="W8" s="157" t="e">
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -8661,7 +8715,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(E9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S1Y_Quote#0001</v>
+        <v>CNHQM3S1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8708,9 +8762,9 @@
       <c r="V9" s="157">
         <v>4.25</v>
       </c>
-      <c r="W9" s="157" t="e">
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -8732,7 +8786,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(E10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S2Y_Quote#0001</v>
+        <v>CNHQM3S2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8779,9 +8833,9 @@
       <c r="V10" s="157">
         <v>4.18</v>
       </c>
-      <c r="W10" s="157" t="e">
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -8803,7 +8857,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(E11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S3Y_Quote#0001</v>
+        <v>CNHQM3S3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8850,9 +8904,9 @@
       <c r="V11" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W11" s="157" t="e">
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -8874,7 +8928,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(E12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S4Y_Quote#0001</v>
+        <v>CNHQM3S4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -8921,9 +8975,9 @@
       <c r="V12" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W12" s="157" t="e">
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -8945,7 +8999,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(E13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S5Y_Quote#0001</v>
+        <v>CNHQM3S5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -8992,9 +9046,9 @@
       <c r="V13" s="157">
         <v>4.1500000000000004</v>
       </c>
-      <c r="W13" s="157" t="e">
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -9016,7 +9070,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(E14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S6Y_Quote#0001</v>
+        <v>CNHQM3S6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -9087,7 +9141,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(E15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S7Y_Quote#0001</v>
+        <v>CNHQM3S7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -9134,9 +9188,9 @@
       <c r="V15" s="157">
         <v>4.18</v>
       </c>
-      <c r="W15" s="157" t="e">
+      <c r="W15" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X15" s="80"/>
       <c r="AD15" s="122"/>
@@ -9158,7 +9212,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(E16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S8Y_Quote#0001</v>
+        <v>CNHQM3S8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9229,7 +9283,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(E17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S9Y_Quote#0001</v>
+        <v>CNHQM3S9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9300,7 +9354,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(E18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S10Y_Quote#0001</v>
+        <v>CNHQM3S10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9347,9 +9401,9 @@
       <c r="V18" s="157">
         <v>4.2300000000000004</v>
       </c>
-      <c r="W18" s="157" t="e">
+      <c r="W18" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F18,V18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X18" s="80"/>
       <c r="AD18" s="122"/>
@@ -9371,7 +9425,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(E19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S11Y_Quote#0001</v>
+        <v>CNHQM3S11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9442,7 +9496,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(E20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S12Y_Quote#0001</v>
+        <v>CNHQM3S12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9513,7 +9567,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(E21,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S13Y_Quote#0001</v>
+        <v>CNHQM3S13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9584,7 +9638,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(E22,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S14Y_Quote#0001</v>
+        <v>CNHQM3S14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9655,7 +9709,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(E23,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S15Y_Quote#0001</v>
+        <v>CNHQM3S15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9726,7 +9780,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(E24,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S16Y_Quote#0001</v>
+        <v>CNHQM3S16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9797,7 +9851,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(E25,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S17Y_Quote#0001</v>
+        <v>CNHQM3S17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9868,7 +9922,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(E26,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S18Y_Quote#0001</v>
+        <v>CNHQM3S18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -9939,7 +9993,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(E27,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S19Y_Quote#0001</v>
+        <v>CNHQM3S19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -10010,7 +10064,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(E28,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S20Y_Quote#0001</v>
+        <v>CNHQM3S20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -10081,7 +10135,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(E29,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S21Y_Quote#0001</v>
+        <v>CNHQM3S21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -10152,7 +10206,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(E30,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S22Y_Quote#0001</v>
+        <v>CNHQM3S22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -10223,7 +10277,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(E31,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S23Y_Quote#0001</v>
+        <v>CNHQM3S23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -10294,7 +10348,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(E32,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S24Y_Quote#0001</v>
+        <v>CNHQM3S24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -10365,7 +10419,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(E33,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S25Y_Quote#0001</v>
+        <v>CNHQM3S25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -10436,7 +10490,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(E34,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S26Y_Quote#0001</v>
+        <v>CNHQM3S26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -10507,7 +10561,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(E35,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S27Y_Quote#0001</v>
+        <v>CNHQM3S27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -10578,7 +10632,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(E36,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S28Y_Quote#0001</v>
+        <v>CNHQM3S28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -10649,7 +10703,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(E37,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S29Y_Quote#0001</v>
+        <v>CNHQM3S29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -10720,7 +10774,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(E38,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S30Y_Quote#0001</v>
+        <v>CNHQM3S30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -10791,7 +10845,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(E39,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S35Y_Quote#0001</v>
+        <v>CNHQM3S35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -10862,7 +10916,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(E40,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S40Y_Quote#0001</v>
+        <v>CNHQM3S40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -10933,7 +10987,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(E41,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S50Y_Quote#0001</v>
+        <v>CNHQM3S50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -11004,7 +11058,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(E42,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3S60Y_Quote#0001</v>
+        <v>CNHQM3S60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -11153,7 +11207,7 @@
       <c r="U3" s="80"/>
       <c r="W3" s="78">
         <f>_xll.ohTrigger(W5:W42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="80"/>
     </row>
@@ -11179,7 +11233,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -11227,7 +11281,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H1M_Quote#0001</v>
+        <v>CNHQM3H1M_Quote#0000</v>
       </c>
       <c r="G5" s="147"/>
       <c r="H5" s="80"/>
@@ -11297,7 +11351,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H3M_Quote#0001</v>
+        <v>CNHQM3H3M_Quote#0000</v>
       </c>
       <c r="G6" s="147"/>
       <c r="H6" s="80"/>
@@ -11366,7 +11420,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H6M_Quote#0001</v>
+        <v>CNHQM3H6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -11413,9 +11467,9 @@
       <c r="V7" s="157">
         <v>3</v>
       </c>
-      <c r="W7" s="157" t="e">
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -11439,7 +11493,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H9M_Quote#0001</v>
+        <v>CNHQM3H9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -11486,9 +11540,9 @@
       <c r="V8" s="157">
         <v>3</v>
       </c>
-      <c r="W8" s="157" t="e">
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -11512,7 +11566,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H1Y_Quote#0001</v>
+        <v>CNHQM3H1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -11559,9 +11613,9 @@
       <c r="V9" s="157">
         <v>3.3</v>
       </c>
-      <c r="W9" s="157" t="e">
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -11583,7 +11637,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H2Y_Quote#0001</v>
+        <v>CNHQM3H2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -11607,10 +11661,10 @@
         <v>CNHQM3H2Y=TRHK</v>
       </c>
       <c r="N10" s="157">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O10" s="157">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="P10" s="157">
         <v>0</v>
@@ -11620,7 +11674,7 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="4"/>
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S10" s="120"/>
       <c r="T10" s="157">
@@ -11628,11 +11682,11 @@
       </c>
       <c r="U10" s="120"/>
       <c r="V10" s="157">
-        <v>3.3</v>
-      </c>
-      <c r="W10" s="157" t="e">
+        <v>3.25</v>
+      </c>
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -11654,7 +11708,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H3Y_Quote#0001</v>
+        <v>CNHQM3H3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -11678,10 +11732,10 @@
         <v>CNHQM3H3Y=TRHK</v>
       </c>
       <c r="N11" s="157">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O11" s="157">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="P11" s="157">
         <v>0</v>
@@ -11691,7 +11745,7 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="4"/>
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S11" s="120"/>
       <c r="T11" s="157">
@@ -11699,11 +11753,11 @@
       </c>
       <c r="U11" s="120"/>
       <c r="V11" s="157">
-        <v>3.3</v>
-      </c>
-      <c r="W11" s="157" t="e">
+        <v>3.25</v>
+      </c>
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -11725,7 +11779,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H4Y_Quote#0001</v>
+        <v>CNHQM3H4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -11772,9 +11826,9 @@
       <c r="V12" s="157">
         <v>3.3</v>
       </c>
-      <c r="W12" s="157" t="e">
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -11796,7 +11850,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H5Y_Quote#0001</v>
+        <v>CNHQM3H5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -11843,9 +11897,9 @@
       <c r="V13" s="157">
         <v>3.45</v>
       </c>
-      <c r="W13" s="157" t="e">
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -11867,7 +11921,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H6Y_Quote#0001</v>
+        <v>CNHQM3H6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -11938,7 +11992,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H7Y_Quote#0001</v>
+        <v>CNHQM3H7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -11985,9 +12039,9 @@
       <c r="V15" s="157">
         <v>0</v>
       </c>
-      <c r="W15" s="157" t="e">
+      <c r="W15" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X15" s="80"/>
       <c r="AD15" s="122"/>
@@ -12009,7 +12063,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H8Y_Quote#0001</v>
+        <v>CNHQM3H8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -12080,7 +12134,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H9Y_Quote#0001</v>
+        <v>CNHQM3H9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -12151,7 +12205,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H10Y_Quote#0001</v>
+        <v>CNHQM3H10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -12198,9 +12252,9 @@
       <c r="V18" s="157">
         <v>1.45</v>
       </c>
-      <c r="W18" s="157" t="e">
+      <c r="W18" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F18,V18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X18" s="80"/>
       <c r="AD18" s="122"/>
@@ -12222,7 +12276,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H11Y_Quote#0001</v>
+        <v>CNHQM3H11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -12293,7 +12347,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H12Y_Quote#0001</v>
+        <v>CNHQM3H12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -12364,7 +12418,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H13Y_Quote#0001</v>
+        <v>CNHQM3H13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -12435,7 +12489,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H14Y_Quote#0001</v>
+        <v>CNHQM3H14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -12506,7 +12560,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H15Y_Quote#0001</v>
+        <v>CNHQM3H15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -12577,7 +12631,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H16Y_Quote#0001</v>
+        <v>CNHQM3H16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -12648,7 +12702,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H17Y_Quote#0001</v>
+        <v>CNHQM3H17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -12719,7 +12773,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H18Y_Quote#0001</v>
+        <v>CNHQM3H18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -12790,7 +12844,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H19Y_Quote#0001</v>
+        <v>CNHQM3H19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -12861,7 +12915,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H20Y_Quote#0001</v>
+        <v>CNHQM3H20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -12932,7 +12986,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H21Y_Quote#0001</v>
+        <v>CNHQM3H21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -13003,7 +13057,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H22Y_Quote#0001</v>
+        <v>CNHQM3H22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -13074,7 +13128,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H23Y_Quote#0001</v>
+        <v>CNHQM3H23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -13145,7 +13199,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H24Y_Quote#0001</v>
+        <v>CNHQM3H24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -13216,7 +13270,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H25Y_Quote#0001</v>
+        <v>CNHQM3H25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -13287,7 +13341,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H26Y_Quote#0001</v>
+        <v>CNHQM3H26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -13358,7 +13412,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H27Y_Quote#0001</v>
+        <v>CNHQM3H27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -13429,7 +13483,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H28Y_Quote#0001</v>
+        <v>CNHQM3H28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -13500,7 +13554,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H29Y_Quote#0001</v>
+        <v>CNHQM3H29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -13571,7 +13625,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H30Y_Quote#0001</v>
+        <v>CNHQM3H30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -13642,7 +13696,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H35Y_Quote#0001</v>
+        <v>CNHQM3H35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -13713,7 +13767,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H40Y_Quote#0001</v>
+        <v>CNHQM3H40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -13784,7 +13838,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H50Y_Quote#0001</v>
+        <v>CNHQM3H50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -13855,7 +13909,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(OffCurrency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H60Y_Quote#0001</v>
+        <v>CNHQM3H60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -13941,10 +13995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA28"/>
+  <dimension ref="B1:AA33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13956,9 +14010,10 @@
     <col min="5" max="5" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="79" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -13982,8 +14037,8 @@
         <v>142</v>
       </c>
       <c r="N2" s="101" t="str">
-        <f>_xll.RData(M8:M15,O2:P2,"RTFEED:IDN",,,N8)</f>
-        <v>Updated at 18:24:56</v>
+        <f>_xll.RData(M9:M16,O2:P2,"RTFEED:IDN",,,N9)</f>
+        <v>Updated at 15:38:25</v>
       </c>
       <c r="O2" s="34" t="s">
         <v>108</v>
@@ -13994,202 +14049,141 @@
     </row>
     <row r="3" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M3" s="99" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="N3" s="102" t="str">
-        <f>_xll.RData(M17:M20,O3:P3,"RTFEED:IDN",,,N17)</f>
-        <v>Updated at 18:24:56</v>
+        <f>_xll.RData(M17,O3:P3,"RTFEED:IDN",,,N17)</f>
+        <v>Updated at 15:41:47</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M4" s="99" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N4" s="102" t="str">
-        <f>_xll.RData(M16,O4:P4,"RTFEED:IDN",,,N16)</f>
-        <v>Updated at 18:24:56</v>
+        <f>_xll.RData(M18:M21,O4:P4,"RTFEED:IDN",,,N18)</f>
+        <v>Updated at 15:41:47</v>
       </c>
       <c r="O4" s="36" t="s">
         <v>108</v>
       </c>
       <c r="P4" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="102" t="str">
+        <f>_xll.RData(M22:M25,O5:P5,"RTFEED:IDN",,,N22)</f>
+        <v>Updated at 15:41:46</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="103" t="str">
+        <f>_xll.RData(M26:M33,O6:P6,"RTFEED:IDN",,,N26)</f>
+        <v>Updated at 15:38:46</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M5" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="103" t="str">
-        <f>_xll.RData(M21:M28,O5:P5,"RTFEED:IDN",,,N21)</f>
-        <v>Updated at 18:24:56</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="138"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="2:27" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
+    <row r="7" spans="2:27" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="138"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="2:27" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F8" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H8" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I8" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="139"/>
-      <c r="M7" s="104" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104" t="s">
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q8" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="104" t="s">
+      <c r="R8" s="139"/>
+      <c r="S8" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="T7" s="104" t="s">
+      <c r="T8" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="U7" s="104" t="s">
+      <c r="U8" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="V7" s="104" t="s">
+      <c r="V8" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="W7" s="104"/>
-    </row>
-    <row r="8" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="53">
-        <v>0</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="53" t="str">
-        <f t="shared" ref="H8:H15" si="0">OnCurrency&amp;OnFamilyName&amp;B8</f>
-        <v>CNYShiborON</v>
-      </c>
-      <c r="I8" s="54" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYON#0001</v>
-      </c>
-      <c r="J8" s="54" t="str">
-        <f>_xll.qlIborIndex(H8,OnFamilyName,"1D",C8,OnCurrency,D8,E8,F8,G8,I8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShiborON#0001</v>
-      </c>
-      <c r="K8" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B8&amp;"LastFixing"&amp;QuoteSuffix,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShiborONLastFixing_Quote#0001</v>
-      </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="57" t="str">
-        <f t="shared" ref="M8:M15" si="1">"SHI"&amp;OnCurrency&amp;B8&amp;"D="</f>
-        <v>SHICNYOND=</v>
-      </c>
-      <c r="N8" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O8" s="59">
-        <v>2.84</v>
-      </c>
-      <c r="P8" s="59" t="b">
-        <f t="shared" ref="P8:P28" si="2">IF(AND(ISNUMBER($O8),$O8&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="60" t="b">
-        <f>IF($P8,_xll.qlIndexAddFixings($J8,$N8,$O8/100,TRUE,ISERROR($S8)),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="139"/>
-      <c r="S8" s="57" t="e">
-        <f>_xll.qlIndexFixing($J8,$N8,TRUE,$P8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T8" s="57">
-        <f>IF($Q8,_xll.qlIndexFixing($J8,$N8,FALSE,$P8),"-")</f>
-        <v>2.8399999999999998E-2</v>
-      </c>
-      <c r="U8" s="57" t="e">
-        <f t="shared" ref="U8:U15" si="3">S8-T8</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V8" s="57" t="e">
-        <f>_xll.qlIndexFixing($J8,$N8,TRUE,$T8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W8" s="7">
-        <f t="shared" ref="W8:W15" si="4">IF(ISERROR(U8),0,ABS(U8))</f>
-        <v>0</v>
-      </c>
+      <c r="W8" s="104"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="53" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C9" s="53">
         <v>0</v>
@@ -14207,31 +14201,34 @@
         <v>112</v>
       </c>
       <c r="H9" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v>CNYShiborSW</v>
-      </c>
-      <c r="I9" s="54"/>
+        <f t="shared" ref="H9:H16" si="0">OnCurrency&amp;OnFamilyName&amp;B9</f>
+        <v>CNYShiborON</v>
+      </c>
+      <c r="I9" s="54" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B9,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYON#0003</v>
+      </c>
       <c r="J9" s="54" t="str">
-        <f>_xll.qlIborIndex(H9,OnFamilyName,"1W",C9,OnCurrency,D9,E9,F9,G9,I9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShiborSW#0001</v>
+        <f>_xll.qlIborIndex(H9,OnFamilyName,"1D",C9,OnCurrency,D9,E9,F9,G9,I9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShiborON#0003</v>
       </c>
       <c r="K9" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B9&amp;"LastFixing"&amp;QuoteSuffix,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShiborSWLastFixing_Quote#0001</v>
+        <v>CnyShiborONLastFixing_Quote#0003</v>
       </c>
       <c r="L9" s="139"/>
       <c r="M9" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNYSWD=</v>
+        <f t="shared" ref="M9:M16" si="1">"SHI"&amp;OnCurrency&amp;B9&amp;"D="</f>
+        <v>SHICNYOND=</v>
       </c>
       <c r="N9" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O9" s="59">
-        <v>3.3</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="P9" s="59" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P9:P33" si="2">IF(AND(ISNUMBER($O9),$O9&lt;&gt;0%),TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="Q9" s="60" t="b">
@@ -14245,10 +14242,10 @@
       </c>
       <c r="T9" s="57">
         <f>IF($Q9,_xll.qlIndexFixing($J9,$N9,FALSE,$P9),"-")</f>
-        <v>3.3000000000000002E-2</v>
+        <v>2.7970000000000002E-2</v>
       </c>
       <c r="U9" s="57" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U9:U16" si="3">S9-T9</f>
         <v>#NUM!</v>
       </c>
       <c r="V9" s="57" t="e">
@@ -14256,13 +14253,13 @@
         <v>#NUM!</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W9:W16" si="4">IF(ISERROR(U9),0,ABS(U9))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="53">
         <v>0</v>
@@ -14281,27 +14278,27 @@
       </c>
       <c r="H10" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor2W</v>
+        <v>CNYShiborSW</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="54" t="str">
-        <f>_xll.qlIborIndex(H10,OnFamilyName,B10,C10,OnCurrency,D10,E10,F10,G10,I10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor2W#0001</v>
+        <f>_xll.qlIborIndex(H10,OnFamilyName,"1W",C10,OnCurrency,D10,E10,F10,G10,I10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYShiborSW#0003</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B10&amp;"LastFixing"&amp;QuoteSuffix,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor2WLastFixing_Quote#0001</v>
+        <v>CnyShiborSWLastFixing_Quote#0003</v>
       </c>
       <c r="L10" s="139"/>
       <c r="M10" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>SHICNY2WD=</v>
+        <v>SHICNYSWD=</v>
       </c>
       <c r="N10" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O10" s="59">
-        <v>3.5529999999999999</v>
+        <v>3.198</v>
       </c>
       <c r="P10" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14318,7 +14315,7 @@
       </c>
       <c r="T10" s="57">
         <f>IF($Q10,_xll.qlIndexFixing($J10,$N10,FALSE,$P10),"-")</f>
-        <v>3.5529999999999999E-2</v>
+        <v>3.1980000000000001E-2</v>
       </c>
       <c r="U10" s="57" t="e">
         <f t="shared" si="3"/>
@@ -14335,7 +14332,7 @@
     </row>
     <row r="11" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="53">
         <v>0</v>
@@ -14344,7 +14341,7 @@
         <v>121</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F11" s="53" t="b">
         <v>1</v>
@@ -14354,27 +14351,27 @@
       </c>
       <c r="H11" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor1M</v>
+        <v>CNYShibor2W</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="54" t="str">
         <f>_xll.qlIborIndex(H11,OnFamilyName,B11,C11,OnCurrency,D11,E11,F11,G11,I11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor1M#0001</v>
+        <v>CNYShibor2W#0003</v>
       </c>
       <c r="K11" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B11&amp;"LastFixing"&amp;QuoteSuffix,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor1MLastFixing_Quote#0001</v>
+        <v>CnyShibor2WLastFixing_Quote#0003</v>
       </c>
       <c r="L11" s="139"/>
       <c r="M11" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>SHICNY1MD=</v>
+        <v>SHICNY2WD=</v>
       </c>
       <c r="N11" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O11" s="59">
-        <v>4.3099999999999996</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="P11" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14391,7 +14388,7 @@
       </c>
       <c r="T11" s="57">
         <f>IF($Q11,_xll.qlIndexFixing($J11,$N11,FALSE,$P11),"-")</f>
-        <v>4.3099999999999999E-2</v>
+        <v>3.4380000000000001E-2</v>
       </c>
       <c r="U11" s="57" t="e">
         <f t="shared" si="3"/>
@@ -14408,7 +14405,7 @@
     </row>
     <row r="12" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="53">
         <v>0</v>
@@ -14427,30 +14424,27 @@
       </c>
       <c r="H12" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor3M</v>
-      </c>
-      <c r="I12" s="54" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3M#0001</v>
-      </c>
+        <v>CNYShibor1M</v>
+      </c>
+      <c r="I12" s="54"/>
       <c r="J12" s="54" t="str">
         <f>_xll.qlIborIndex(H12,OnFamilyName,B12,C12,OnCurrency,D12,E12,F12,G12,I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor3M#0001</v>
+        <v>CNYShibor1M#0003</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B12&amp;"LastFixing"&amp;QuoteSuffix,J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor3MLastFixing_Quote#0001</v>
+        <v>CnyShibor1MLastFixing_Quote#0003</v>
       </c>
       <c r="L12" s="139"/>
       <c r="M12" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>SHICNY3MD=</v>
+        <v>SHICNY1MD=</v>
       </c>
       <c r="N12" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O12" s="59">
-        <v>4.6070000000000002</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="P12" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14467,7 +14461,7 @@
       </c>
       <c r="T12" s="57">
         <f>IF($Q12,_xll.qlIndexFixing($J12,$N12,FALSE,$P12),"-")</f>
-        <v>4.607E-2</v>
+        <v>4.2770000000000002E-2</v>
       </c>
       <c r="U12" s="57" t="e">
         <f t="shared" si="3"/>
@@ -14484,7 +14478,7 @@
     </row>
     <row r="13" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="53">
         <v>0</v>
@@ -14503,27 +14497,30 @@
       </c>
       <c r="H13" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor6M</v>
-      </c>
-      <c r="I13" s="54"/>
+        <v>CNYShibor3M</v>
+      </c>
+      <c r="I13" s="54" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B13,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNY3M#0003</v>
+      </c>
       <c r="J13" s="54" t="str">
         <f>_xll.qlIborIndex(H13,OnFamilyName,B13,C13,OnCurrency,D13,E13,F13,G13,I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor6M#0001</v>
+        <v>CNYShibor3M#0003</v>
       </c>
       <c r="K13" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B13&amp;"LastFixing"&amp;QuoteSuffix,J13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor6MLastFixing_Quote#0001</v>
+        <v>CnyShibor3MLastFixing_Quote#0003</v>
       </c>
       <c r="L13" s="139"/>
       <c r="M13" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>SHICNY6MD=</v>
+        <v>SHICNY3MD=</v>
       </c>
       <c r="N13" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O13" s="59">
-        <v>4.8419999999999996</v>
+        <v>4.5986000000000002</v>
       </c>
       <c r="P13" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14540,7 +14537,7 @@
       </c>
       <c r="T13" s="57">
         <f>IF($Q13,_xll.qlIndexFixing($J13,$N13,FALSE,$P13),"-")</f>
-        <v>4.8419999999999998E-2</v>
+        <v>4.5985999999999999E-2</v>
       </c>
       <c r="U13" s="57" t="e">
         <f t="shared" si="3"/>
@@ -14557,7 +14554,7 @@
     </row>
     <row r="14" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="53">
         <v>0</v>
@@ -14576,27 +14573,27 @@
       </c>
       <c r="H14" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor9M</v>
+        <v>CNYShibor6M</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="54" t="str">
         <f>_xll.qlIborIndex(H14,OnFamilyName,B14,C14,OnCurrency,D14,E14,F14,G14,I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor9M#0001</v>
+        <v>CNYShibor6M#0003</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B14&amp;"LastFixing"&amp;QuoteSuffix,J14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor9MLastFixing_Quote#0001</v>
+        <v>CnyShibor6MLastFixing_Quote#0003</v>
       </c>
       <c r="L14" s="139"/>
       <c r="M14" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>SHICNY9MD=</v>
+        <v>SHICNY6MD=</v>
       </c>
       <c r="N14" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O14" s="59">
-        <v>4.9227999999999996</v>
+        <v>4.8323999999999998</v>
       </c>
       <c r="P14" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14613,7 +14610,7 @@
       </c>
       <c r="T14" s="57">
         <f>IF($Q14,_xll.qlIndexFixing($J14,$N14,FALSE,$P14),"-")</f>
-        <v>4.9227999999999994E-2</v>
+        <v>4.8323999999999999E-2</v>
       </c>
       <c r="U14" s="57" t="e">
         <f t="shared" si="3"/>
@@ -14629,74 +14626,74 @@
       </c>
     </row>
     <row r="15" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="55">
+      <c r="B15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="53">
         <v>0</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="55" t="b">
+      <c r="F15" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="55" t="str">
+      <c r="H15" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>CNYShibor1Y</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32" t="str">
+        <v>CNYShibor9M</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54" t="str">
         <f>_xll.qlIborIndex(H15,OnFamilyName,B15,C15,OnCurrency,D15,E15,F15,G15,I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYShibor1Y#0001</v>
-      </c>
-      <c r="K15" s="56" t="str">
+        <v>CNYShibor9M#0003</v>
+      </c>
+      <c r="K15" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B15&amp;"LastFixing"&amp;QuoteSuffix,J15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyShibor1YLastFixing_Quote#0001</v>
+        <v>CnyShibor9MLastFixing_Quote#0003</v>
       </c>
       <c r="L15" s="139"/>
-      <c r="M15" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>SHICNY1YD=</v>
-      </c>
-      <c r="N15" s="62">
-        <v>41901</v>
-      </c>
-      <c r="O15" s="63">
-        <v>4.9974999999999996</v>
-      </c>
-      <c r="P15" s="63" t="b">
+      <c r="M15" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>SHICNY9MD=</v>
+      </c>
+      <c r="N15" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O15" s="59">
+        <v>4.9165000000000001</v>
+      </c>
+      <c r="P15" s="59" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="64" t="b">
+      <c r="Q15" s="60" t="b">
         <f>IF($P15,_xll.qlIndexAddFixings($J15,$N15,$O15/100,TRUE,ISERROR($S15)),NA())</f>
         <v>1</v>
       </c>
       <c r="R15" s="139"/>
-      <c r="S15" s="61" t="e">
+      <c r="S15" s="57" t="e">
         <f>_xll.qlIndexFixing($J15,$N15,TRUE,$P15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="T15" s="61">
+      <c r="T15" s="57">
         <f>IF($Q15,_xll.qlIndexFixing($J15,$N15,FALSE,$P15),"-")</f>
-        <v>4.9974999999999999E-2</v>
-      </c>
-      <c r="U15" s="61" t="e">
+        <v>4.9165E-2</v>
+      </c>
+      <c r="U15" s="57" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V15" s="61" t="e">
+      <c r="V15" s="57" t="e">
         <f>_xll.qlIndexFixing($J15,$N15,TRUE,$T15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14721,31 +14718,28 @@
         <v>112</v>
       </c>
       <c r="H16" s="55" t="str">
-        <f>OnCurrency&amp;"LPR"&amp;B16</f>
-        <v>CNYLPR1Y</v>
-      </c>
-      <c r="I16" s="32" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1Y#0001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>CNYShibor1Y</v>
+      </c>
+      <c r="I16" s="32"/>
       <c r="J16" s="32" t="str">
         <f>_xll.qlIborIndex(H16,OnFamilyName,B16,C16,OnCurrency,D16,E16,F16,G16,I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYLPR1Y#0001</v>
+        <v>CNYShibor1Y#0003</v>
       </c>
       <c r="K16" s="56" t="str">
-        <f>_xll.qlLastFixingQuote(H16&amp;"LastFixing"&amp;QuoteSuffix,J16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYLPR1YLastFixing_Quote#0001</v>
+        <f>_xll.qlLastFixingQuote(PROPER(OnCurrency)&amp;OnFamilyName&amp;B16&amp;"LastFixing"&amp;QuoteSuffix,J16,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyShibor1YLastFixing_Quote#0003</v>
       </c>
       <c r="L16" s="139"/>
       <c r="M16" s="61" t="str">
-        <f>OnCurrency&amp;"LPR"&amp;B16&amp;"="</f>
-        <v>CNYLPR1Y=</v>
+        <f t="shared" si="1"/>
+        <v>SHICNY1YD=</v>
       </c>
       <c r="N16" s="62">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O16" s="63">
-        <v>5.76</v>
+        <v>4.9965000000000002</v>
       </c>
       <c r="P16" s="63" t="b">
         <f t="shared" si="2"/>
@@ -14762,10 +14756,10 @@
       </c>
       <c r="T16" s="61">
         <f>IF($Q16,_xll.qlIndexFixing($J16,$N16,FALSE,$P16),"-")</f>
-        <v>5.7599999999999998E-2</v>
+        <v>4.9965000000000002E-2</v>
       </c>
       <c r="U16" s="61" t="e">
-        <f t="shared" ref="U16" si="5">S16-T16</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="V16" s="61" t="e">
@@ -14773,86 +14767,89 @@
         <v>#NUM!</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" ref="W16" si="6">IF(ISERROR(U16),0,ABS(U16))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="53">
+    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="55">
         <v>0</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="53" t="b">
+      <c r="E17" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="53" t="str">
-        <f>PROPER(OnCurrency)&amp;"Repo"&amp;B17</f>
-        <v>CnyRepo1D</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54" t="str">
-        <f>_xll.qlIborIndex(H17,OffFamilyName,"1D",C17,OnCurrency,D17,E17,F17,G17,I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo1D#0001</v>
-      </c>
-      <c r="K17" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"Repo"&amp;B17&amp;"LastFixing"&amp;QuoteSuffix,J17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo1DLastFixing_Quote#0001</v>
+      <c r="H17" s="55" t="str">
+        <f>OnCurrency&amp;"LPR"&amp;B17</f>
+        <v>CNYLPR1Y</v>
+      </c>
+      <c r="I17" s="32" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B17,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNY1Y#0003</v>
+      </c>
+      <c r="J17" s="32" t="str">
+        <f>_xll.qlIborIndex(H17,OnFamilyName,B17,C17,OnCurrency,D17,E17,F17,G17,I17,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYLPR1Y#0003</v>
+      </c>
+      <c r="K17" s="56" t="str">
+        <f>_xll.qlLastFixingQuote(H17&amp;"LastFixing"&amp;QuoteSuffix,J17,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNYLPR1YLastFixing_Quote#0003</v>
       </c>
       <c r="L17" s="139"/>
-      <c r="M17" s="65" t="str">
-        <f>"CN"&amp;B17&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
-        <v>CN1DRPFIX=CFXS</v>
-      </c>
-      <c r="N17" s="66">
-        <v>41901</v>
-      </c>
-      <c r="O17" s="67">
-        <v>2.9</v>
-      </c>
-      <c r="P17" s="67" t="b">
+      <c r="M17" s="61" t="str">
+        <f>OnCurrency&amp;"LPR"&amp;B17&amp;"="</f>
+        <v>CNYLPR1Y=</v>
+      </c>
+      <c r="N17" s="62">
+        <v>41904</v>
+      </c>
+      <c r="O17" s="63">
+        <v>5.76</v>
+      </c>
+      <c r="P17" s="63" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="68" t="b">
+      <c r="Q17" s="64" t="b">
         <f>IF($P17,_xll.qlIndexAddFixings($J17,$N17,$O17/100,TRUE,ISERROR($S17)),NA())</f>
         <v>1</v>
       </c>
       <c r="R17" s="139"/>
-      <c r="S17" s="57" t="e">
+      <c r="S17" s="61" t="e">
         <f>_xll.qlIndexFixing($J17,$N17,TRUE,$P17)</f>
         <v>#NUM!</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="61">
         <f>IF($Q17,_xll.qlIndexFixing($J17,$N17,FALSE,$P17),"-")</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="U17" s="57" t="e">
-        <f t="shared" ref="U17:U20" si="7">S17-T17</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V17" s="57" t="e">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="U17" s="61" t="e">
+        <f t="shared" ref="U17" si="5">S17-T17</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V17" s="61" t="e">
         <f>_xll.qlIndexFixing($J17,$N17,TRUE,$T17)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W17" s="6">
-        <f t="shared" ref="W17:W20" si="8">IF(ISERROR(U17),0,ABS(U17))</f>
+      <c r="W17" s="8">
+        <f t="shared" ref="W17" si="6">IF(ISERROR(U17),0,ABS(U17))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" s="53">
         <v>0</v>
@@ -14871,36 +14868,33 @@
       </c>
       <c r="H18" s="53" t="str">
         <f>PROPER(OnCurrency)&amp;"Repo"&amp;B18</f>
-        <v>CnyRepo7D</v>
-      </c>
-      <c r="I18" s="54" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B18&amp;"REPO",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7DREPO#0001</v>
-      </c>
+        <v>CnyRepo1D</v>
+      </c>
+      <c r="I18" s="54"/>
       <c r="J18" s="54" t="str">
-        <f>_xll.qlIborIndex(H18,OffFamilyName,"1W",C18,OnCurrency,D18,E18,F18,G18,I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo7D#0001</v>
+        <f>_xll.qlIborIndex(H18,OffFamilyName,"1D",C18,OnCurrency,D18,E18,F18,G18,I18,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyRepo1D#0003</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"Repo"&amp;B18&amp;"LastFixing"&amp;QuoteSuffix,J18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo7DLastFixing_Quote#0001</v>
+        <v>CnyRepo1DLastFixing_Quote#0003</v>
       </c>
       <c r="L18" s="139"/>
-      <c r="M18" s="57" t="str">
+      <c r="M18" s="65" t="str">
         <f>"CN"&amp;B18&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
-        <v>CN7DRPFIX=CFXS</v>
-      </c>
-      <c r="N18" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O18" s="59">
-        <v>3.4</v>
-      </c>
-      <c r="P18" s="59" t="b">
+        <v>CN1DRPFIX=CFXS</v>
+      </c>
+      <c r="N18" s="66">
+        <v>41904</v>
+      </c>
+      <c r="O18" s="67">
+        <v>2.85</v>
+      </c>
+      <c r="P18" s="67" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="60" t="b">
+      <c r="Q18" s="68" t="b">
         <f>IF($P18,_xll.qlIndexAddFixings($J18,$N18,$O18/100,TRUE,ISERROR($S18)),NA())</f>
         <v>1</v>
       </c>
@@ -14911,24 +14905,24 @@
       </c>
       <c r="T18" s="57">
         <f>IF($Q18,_xll.qlIndexFixing($J18,$N18,FALSE,$P18),"-")</f>
-        <v>3.4000000000000002E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="U18" s="57" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U18:U21" si="7">S18-T18</f>
         <v>#NUM!</v>
       </c>
       <c r="V18" s="57" t="e">
         <f>_xll.qlIndexFixing($J18,$N18,TRUE,$T18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W18" s="7">
-        <f t="shared" si="8"/>
+      <c r="W18" s="6">
+        <f t="shared" ref="W18:W21" si="8">IF(ISERROR(U18),0,ABS(U18))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="53" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C19" s="53">
         <v>0</v>
@@ -14947,30 +14941,30 @@
       </c>
       <c r="H19" s="53" t="str">
         <f>PROPER(OnCurrency)&amp;"Repo"&amp;B19</f>
-        <v>CnyRepo7DND</v>
+        <v>CnyRepo7D</v>
       </c>
       <c r="I19" s="54" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B19&amp;"REPO",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7DNDREPO#0001</v>
+        <v>CNY7DREPO#0003</v>
       </c>
       <c r="J19" s="54" t="str">
         <f>_xll.qlIborIndex(H19,OffFamilyName,"1W",C19,OnCurrency,D19,E19,F19,G19,I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo7DND#0001</v>
+        <v>CnyRepo7D#0003</v>
       </c>
       <c r="K19" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"Repo"&amp;B19&amp;"LastFixing"&amp;QuoteSuffix,J19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo7DNDLastFixing_Quote#0001</v>
+        <v>CnyRepo7DLastFixing_Quote#0003</v>
       </c>
       <c r="L19" s="139"/>
       <c r="M19" s="57" t="str">
-        <f>"CN"&amp;LEFT(B19,2)&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
+        <f>"CN"&amp;B19&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
         <v>CN7DRPFIX=CFXS</v>
       </c>
       <c r="N19" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O19" s="59">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="P19" s="59" t="b">
         <f t="shared" si="2"/>
@@ -14987,10 +14981,10 @@
       </c>
       <c r="T19" s="57">
         <f>IF($Q19,_xll.qlIndexFixing($J19,$N19,FALSE,$P19),"-")</f>
-        <v>3.4000000000000002E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="U19" s="57" t="e">
-        <f t="shared" ref="U19" si="9">S19-T19</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="V19" s="57" t="e">
@@ -14998,468 +14992,464 @@
         <v>#NUM!</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" ref="W19" si="10">IF(ISERROR(U19),0,ABS(U19))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="55">
+      <c r="B20" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="53">
         <v>0</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="55" t="b">
+      <c r="F20" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="55" t="str">
+      <c r="H20" s="53" t="str">
         <f>PROPER(OnCurrency)&amp;"Repo"&amp;B20</f>
-        <v>CnyRepo14D</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32" t="str">
-        <f>_xll.qlIborIndex(H20,OffFamilyName,B20,C20,OnCurrency,D20,E20,F20,G20,I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo14D#0001</v>
-      </c>
-      <c r="K20" s="32" t="str">
+        <v>CnyRepo7DND</v>
+      </c>
+      <c r="I20" s="54" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(OnCurrency&amp;B20&amp;"REPO",,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNY7DNDREPO#0003</v>
+      </c>
+      <c r="J20" s="54" t="str">
+        <f>_xll.qlIborIndex(H20,OffFamilyName,"1W",C20,OnCurrency,D20,E20,F20,G20,I20,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyRepo7DND#0003</v>
+      </c>
+      <c r="K20" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"Repo"&amp;B20&amp;"LastFixing"&amp;QuoteSuffix,J20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnyRepo14DLastFixing_Quote#0001</v>
+        <v>CnyRepo7DNDLastFixing_Quote#0003</v>
       </c>
       <c r="L20" s="139"/>
-      <c r="M20" s="61" t="str">
-        <f>"CN"&amp;B20&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
-        <v>CN14DRPFIX=CFXS</v>
-      </c>
-      <c r="N20" s="62">
-        <v>41901</v>
-      </c>
-      <c r="O20" s="63">
-        <v>3.69</v>
-      </c>
-      <c r="P20" s="63" t="b">
+      <c r="M20" s="57" t="str">
+        <f>"CN"&amp;LEFT(B20,2)&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
+        <v>CN7DRPFIX=CFXS</v>
+      </c>
+      <c r="N20" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O20" s="59">
+        <v>3.26</v>
+      </c>
+      <c r="P20" s="59" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="64" t="b">
+      <c r="Q20" s="60" t="b">
         <f>IF($P20,_xll.qlIndexAddFixings($J20,$N20,$O20/100,TRUE,ISERROR($S20)),NA())</f>
         <v>1</v>
       </c>
       <c r="R20" s="139"/>
-      <c r="S20" s="61" t="e">
+      <c r="S20" s="57" t="e">
         <f>_xll.qlIndexFixing($J20,$N20,TRUE,$P20)</f>
         <v>#NUM!</v>
       </c>
-      <c r="T20" s="61">
+      <c r="T20" s="57">
         <f>IF($Q20,_xll.qlIndexFixing($J20,$N20,FALSE,$P20),"-")</f>
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="U20" s="61" t="e">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="U20" s="57" t="e">
+        <f t="shared" ref="U20" si="9">S20-T20</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V20" s="57" t="e">
+        <f>_xll.qlIndexFixing($J20,$N20,TRUE,$T20)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ref="W20" si="10">IF(ISERROR(U20),0,ABS(U20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="55" t="str">
+        <f>PROPER(OnCurrency)&amp;"Repo"&amp;B21</f>
+        <v>CnyRepo14D</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32" t="str">
+        <f>_xll.qlIborIndex(H21,OffFamilyName,B21,C21,OnCurrency,D21,E21,F21,G21,I21,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyRepo14D#0003</v>
+      </c>
+      <c r="K21" s="32" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"Repo"&amp;B21&amp;"LastFixing"&amp;QuoteSuffix,J21,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyRepo14DLastFixing_Quote#0003</v>
+      </c>
+      <c r="L21" s="139"/>
+      <c r="M21" s="61" t="str">
+        <f>"CN"&amp;B21&amp;"RPFIX"&amp;"="&amp;"CFXS"</f>
+        <v>CN14DRPFIX=CFXS</v>
+      </c>
+      <c r="N21" s="62">
+        <v>41904</v>
+      </c>
+      <c r="O21" s="63">
+        <v>3.4</v>
+      </c>
+      <c r="P21" s="63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="64" t="b">
+        <f>IF($P21,_xll.qlIndexAddFixings($J21,$N21,$O21/100,TRUE,ISERROR($S21)),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="139"/>
+      <c r="S21" s="61" t="e">
+        <f>_xll.qlIndexFixing($J21,$N21,TRUE,$P21)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" s="61">
+        <f>IF($Q21,_xll.qlIndexFixing($J21,$N21,FALSE,$P21),"-")</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="U21" s="61" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="V20" s="61" t="e">
-        <f>_xll.qlIndexFixing($J20,$N20,TRUE,$T20)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W20" s="8">
+      <c r="V21" s="61" t="e">
+        <f>_xll.qlIndexFixing($J21,$N21,TRUE,$T21)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W21" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="53">
+    <row r="22" spans="2:24" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="167">
         <v>0</v>
       </c>
-      <c r="D21" s="53" t="str">
-        <f t="shared" ref="D21:D28" si="11">OffCalendar</f>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E21" s="53" t="s">
+      <c r="D22" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="53" t="b">
+      <c r="F22" s="167" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="53" t="str">
-        <f t="shared" ref="H21:H28" si="12">PROPER(OffCurrency)&amp;OffFamilyName&amp;B21</f>
-        <v>CnhHiborON</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54" t="str">
-        <f>_xll.qlOvernightIndex(H21,OffFamilyName,C21,OnCurrency,OffCalendar,G21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHiborON#0001</v>
-      </c>
-      <c r="K21" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B21&amp;"LastFixing"&amp;QuoteSuffix,J21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHiborONLastFixing_Quote#0001</v>
-      </c>
-      <c r="L21" s="139"/>
-      <c r="M21" s="57" t="str">
-        <f t="shared" ref="M21:M28" si="13">"HI"&amp;OffCurrency&amp;B21&amp;"DF"&amp;"="</f>
-        <v>HICNHONDF=</v>
-      </c>
-      <c r="N21" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O21" s="59">
-        <v>7.0888900000000001</v>
-      </c>
-      <c r="P21" s="59" t="b">
+      <c r="G22" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="167" t="str">
+        <f>PROPER(OnCurrency)&amp;"CollRepo"&amp;B22</f>
+        <v>CnyCollRepo1D</v>
+      </c>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168" t="str">
+        <f>_xll.qlIborIndex(H22,OffFamilyName,"1D",C22,OnCurrency,D22,E22,F22,G22,I22,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo1D#0001</v>
+      </c>
+      <c r="K22" s="168" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"CollRepo"&amp;B22&amp;"LastFixing"&amp;QuoteSuffix,J22,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo1DLastFixing_Quote#0001</v>
+      </c>
+      <c r="L22" s="169"/>
+      <c r="M22" s="170" t="str">
+        <f>"CN"&amp;B22&amp;"RP"&amp;"="&amp;"CFXS"</f>
+        <v>CN1DRP=CFXS</v>
+      </c>
+      <c r="N22" s="171">
+        <v>41904</v>
+      </c>
+      <c r="O22" s="172">
+        <v>2.79</v>
+      </c>
+      <c r="P22" s="172" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="60" t="b">
-        <f>IF(O21,_xll.qlIndexAddFixings(H21,N21,O21/100,TRUE),NA())</f>
+      <c r="Q22" s="173" t="b">
+        <f>IF($P22,_xll.qlIndexAddFixings($J22,$N22,$O22/100,TRUE,ISERROR($S22)),NA())</f>
         <v>1</v>
       </c>
-      <c r="R21" s="139"/>
-      <c r="S21" s="57" t="e">
-        <f>_xll.qlIndexFixing($H21,$N21,TRUE,$P21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T21" s="57">
-        <f>IF($Q21,_xll.qlIndexFixing($H21,$N21,FALSE,$P21),"-")</f>
-        <v>7.0888900000000005E-2</v>
-      </c>
-      <c r="U21" s="57" t="e">
-        <f t="shared" ref="U21:U28" si="14">S21-T21</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V21" s="57" t="e">
-        <f>_xll.qlIndexFixing($H21,$N21,TRUE,$T21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W21" s="7">
-        <f>IF(ISERROR(U21),0,ABS(U21))</f>
+      <c r="R22" s="169"/>
+      <c r="S22" s="174" t="e">
+        <f>_xll.qlIndexFixing($J22,$N22,TRUE,$P22)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" s="174">
+        <f>IF($Q22,_xll.qlIndexFixing($J22,$N22,FALSE,$P22),"-")</f>
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="U22" s="174" t="e">
+        <f t="shared" ref="U22:U25" si="11">S22-T22</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V22" s="174" t="e">
+        <f>_xll.qlIndexFixing($J22,$N22,TRUE,$T22)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W22" s="175">
+        <f t="shared" ref="W22:W25" si="12">IF(ISERROR(U22),0,ABS(U22))</f>
         <v>0</v>
       </c>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="53">
-        <v>2</v>
-      </c>
-      <c r="D22" s="53" t="str">
-        <f t="shared" si="11"/>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E22" s="53" t="s">
+    </row>
+    <row r="23" spans="2:24" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="167" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="167">
+        <v>0</v>
+      </c>
+      <c r="D23" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="53" t="b">
+      <c r="F23" s="167" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor1W</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54" t="str">
-        <f>_xll.qlOvernightIndex(H22,OffFamilyName,C22,OnCurrency,OffCalendar,G22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1W#0001</v>
-      </c>
-      <c r="K22" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B22&amp;"LastFixing"&amp;QuoteSuffix,J22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1WLastFixing_Quote#0001</v>
-      </c>
-      <c r="L22" s="139"/>
-      <c r="M22" s="57" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH1WDF=</v>
-      </c>
-      <c r="N22" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O22" s="59">
-        <v>4.32</v>
-      </c>
-      <c r="P22" s="59" t="b">
+      <c r="G23" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="167" t="str">
+        <f>PROPER(OnCurrency)&amp;"CollRepo"&amp;B23</f>
+        <v>CnyCollRepo7D</v>
+      </c>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168" t="str">
+        <f>_xll.qlIborIndex(H23,OffFamilyName,"1W",C23,OnCurrency,D23,E23,F23,G23,I23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo7D#0001</v>
+      </c>
+      <c r="K23" s="168" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"CollRepo"&amp;B23&amp;"LastFixing"&amp;QuoteSuffix,J23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo7DLastFixing_Quote#0001</v>
+      </c>
+      <c r="L23" s="169"/>
+      <c r="M23" s="174" t="str">
+        <f t="shared" ref="M23:M25" si="13">"CN"&amp;B23&amp;"RP"&amp;"="&amp;"CFXS"</f>
+        <v>CN7DRP=CFXS</v>
+      </c>
+      <c r="N23" s="176">
+        <v>41904</v>
+      </c>
+      <c r="O23" s="177">
+        <v>3.22</v>
+      </c>
+      <c r="P23" s="177" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="60" t="b">
-        <f>IF(O22,_xll.qlIndexAddFixings(H22,N22,O22/100,TRUE),NA())</f>
+      <c r="Q23" s="178" t="b">
+        <f>IF($P23,_xll.qlIndexAddFixings($J23,$N23,$O23/100,TRUE,ISERROR($S23)),NA())</f>
         <v>1</v>
       </c>
-      <c r="R22" s="139"/>
-      <c r="S22" s="57" t="e">
-        <f>_xll.qlIndexFixing($H22,$N22,TRUE,$P22)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T22" s="57">
-        <f>IF($Q22,_xll.qlIndexFixing($H22,$N22,FALSE,$P22),"-")</f>
-        <v>3.5972200000000003E-2</v>
-      </c>
-      <c r="U22" s="57" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V22" s="57" t="e">
-        <f>_xll.qlIndexFixing($H22,$N22,TRUE,$T22)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W22" s="7">
-        <f t="shared" ref="W22:W28" si="15">IF(ISERROR(U22),0,ABS(U22))</f>
+      <c r="R23" s="169"/>
+      <c r="S23" s="174" t="e">
+        <f>_xll.qlIndexFixing($J23,$N23,TRUE,$P23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" s="174">
+        <f>IF($Q23,_xll.qlIndexFixing($J23,$N23,FALSE,$P23),"-")</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="U23" s="174" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V23" s="174" t="e">
+        <f>_xll.qlIndexFixing($J23,$N23,TRUE,$T23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W23" s="179">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="53">
-        <v>2</v>
-      </c>
-      <c r="D23" s="53" t="str">
-        <f t="shared" si="11"/>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E23" s="53" t="s">
+    </row>
+    <row r="24" spans="2:24" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="167">
+        <v>0</v>
+      </c>
+      <c r="D24" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="53" t="b">
+      <c r="F24" s="167" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor2W</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54" t="str">
-        <f>_xll.qlOvernightIndex(H23,OffFamilyName,C23,OnCurrency,OffCalendar,G23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2W#0001</v>
-      </c>
-      <c r="K23" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B23&amp;"LastFixing"&amp;QuoteSuffix,J23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2WLastFixing_Quote#0001</v>
-      </c>
-      <c r="L23" s="139"/>
-      <c r="M23" s="57" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH2WDF=</v>
-      </c>
-      <c r="N23" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O23" s="59">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="P23" s="59" t="b">
+      <c r="G24" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="167" t="str">
+        <f>PROPER(OnCurrency)&amp;"CollRepo"&amp;B24</f>
+        <v>CnyCollRepo7DND</v>
+      </c>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168" t="str">
+        <f>_xll.qlIborIndex(H24,OffFamilyName,"1W",C24,OnCurrency,D24,E24,F24,G24,I24,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo7DND#0001</v>
+      </c>
+      <c r="K24" s="168" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"CollRepo"&amp;B24&amp;"LastFixing"&amp;QuoteSuffix,J24,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo7DNDLastFixing_Quote#0001</v>
+      </c>
+      <c r="L24" s="169"/>
+      <c r="M24" s="174" t="str">
+        <f>"CN"&amp;LEFT(B24,2)&amp;"RP"&amp;"="&amp;"CFXS"</f>
+        <v>CN7DRP=CFXS</v>
+      </c>
+      <c r="N24" s="176">
+        <v>41904</v>
+      </c>
+      <c r="O24" s="177">
+        <v>3.22</v>
+      </c>
+      <c r="P24" s="177" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="60" t="b">
-        <f>IF(O23,_xll.qlIndexAddFixings(H23,N23,O23/100,TRUE),NA())</f>
+      <c r="Q24" s="178" t="b">
+        <f>IF($P24,_xll.qlIndexAddFixings($J24,$N24,$O24/100,TRUE,ISERROR($S24)),NA())</f>
         <v>1</v>
       </c>
-      <c r="R23" s="139"/>
-      <c r="S23" s="57" t="e">
-        <f>_xll.qlIndexFixing($H23,$N23,TRUE,$P23)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" s="57">
-        <f>IF($Q23,_xll.qlIndexFixing($H23,$N23,FALSE,$P23),"-")</f>
-        <v>3.5972200000000003E-2</v>
-      </c>
-      <c r="U23" s="57" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V23" s="57" t="e">
-        <f>_xll.qlIndexFixing($H23,$N23,TRUE,$T23)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W23" s="7">
-        <f t="shared" si="15"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="174" t="e">
+        <f>_xll.qlIndexFixing($J24,$N24,TRUE,$P24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" s="174">
+        <f>IF($Q24,_xll.qlIndexFixing($J24,$N24,FALSE,$P24),"-")</f>
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="U24" s="174" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V24" s="174" t="e">
+        <f>_xll.qlIndexFixing($J24,$N24,TRUE,$T24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W24" s="179">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="53">
-        <v>2</v>
-      </c>
-      <c r="D24" s="53" t="str">
-        <f t="shared" si="11"/>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="53" t="b">
+    <row r="25" spans="2:24" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="180">
+        <v>0</v>
+      </c>
+      <c r="D25" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="180" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="180" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor1M</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54" t="str">
-        <f>_xll.qlOvernightIndex(H24,OffFamilyName,C24,OnCurrency,OffCalendar,G24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1M#0001</v>
-      </c>
-      <c r="K24" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B24&amp;"LastFixing"&amp;QuoteSuffix,J24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1MLastFixing_Quote#0001</v>
-      </c>
-      <c r="L24" s="139"/>
-      <c r="M24" s="57" t="str">
+      <c r="G25" s="180" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="180" t="str">
+        <f>PROPER(OnCurrency)&amp;"CollRepo"&amp;B25</f>
+        <v>CnyCollRepo14D</v>
+      </c>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181" t="str">
+        <f>_xll.qlIborIndex(H25,OffFamilyName,B25,C25,OnCurrency,D25,E25,F25,G25,I25,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo14D#0001</v>
+      </c>
+      <c r="K25" s="181" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER("CNY")&amp;"CollRepo"&amp;B25&amp;"LastFixing"&amp;QuoteSuffix,J25,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnyCollRepo14DLastFixing_Quote#0001</v>
+      </c>
+      <c r="L25" s="169"/>
+      <c r="M25" s="182" t="str">
         <f t="shared" si="13"/>
-        <v>HICNH1MDF=</v>
-      </c>
-      <c r="N24" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O24" s="59">
-        <v>3.5972200000000001</v>
-      </c>
-      <c r="P24" s="59" t="b">
+        <v>CN14DRP=CFXS</v>
+      </c>
+      <c r="N25" s="183">
+        <v>41904</v>
+      </c>
+      <c r="O25" s="184">
+        <v>3.42</v>
+      </c>
+      <c r="P25" s="184" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="60" t="b">
-        <f>IF(O24,_xll.qlIndexAddFixings(H24,N24,O24/100,TRUE),NA())</f>
+      <c r="Q25" s="185" t="b">
+        <f>IF($P25,_xll.qlIndexAddFixings($J25,$N25,$O25/100,TRUE,ISERROR($S25)),NA())</f>
         <v>1</v>
       </c>
-      <c r="R24" s="139"/>
-      <c r="S24" s="57" t="e">
-        <f>_xll.qlIndexFixing($H24,$N24,TRUE,$P24)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T24" s="57">
-        <f>IF($Q24,_xll.qlIndexFixing($H24,$N24,FALSE,$P24),"-")</f>
-        <v>3.5972200000000003E-2</v>
-      </c>
-      <c r="U24" s="57" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V24" s="57" t="e">
-        <f>_xll.qlIndexFixing($H24,$N24,TRUE,$T24)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W24" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="53">
-        <v>2</v>
-      </c>
-      <c r="D25" s="53" t="str">
+      <c r="R25" s="169"/>
+      <c r="S25" s="182" t="e">
+        <f>_xll.qlIndexFixing($J25,$N25,TRUE,$P25)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="182">
+        <f>IF($Q25,_xll.qlIndexFixing($J25,$N25,FALSE,$P25),"-")</f>
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="U25" s="182" t="e">
         <f t="shared" si="11"/>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="53" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="V25" s="182" t="e">
+        <f>_xll.qlIndexFixing($J25,$N25,TRUE,$T25)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W25" s="186">
         <f t="shared" si="12"/>
-        <v>CnhHibor2M</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="str">
-        <f>_xll.qlOvernightIndex(H25,OffFamilyName,C25,OnCurrency,OffCalendar,G25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2M#0001</v>
-      </c>
-      <c r="K25" s="54" t="str">
-        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B25&amp;"LastFixing"&amp;QuoteSuffix,J25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2MLastFixing_Quote#0001</v>
-      </c>
-      <c r="L25" s="139"/>
-      <c r="M25" s="57" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH2MDF=</v>
-      </c>
-      <c r="N25" s="58">
-        <v>41901</v>
-      </c>
-      <c r="O25" s="59">
-        <v>3.38889</v>
-      </c>
-      <c r="P25" s="59" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="60" t="b">
-        <f>IF(O25,_xll.qlIndexAddFixings(H25,N25,O25/100,TRUE),NA())</f>
-        <v>1</v>
-      </c>
-      <c r="R25" s="139"/>
-      <c r="S25" s="57" t="e">
-        <f>_xll.qlIndexFixing($H25,$N25,TRUE,$P25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T25" s="57">
-        <f>IF($Q25,_xll.qlIndexFixing($H25,$N25,FALSE,$P25),"-")</f>
-        <v>3.5972200000000003E-2</v>
-      </c>
-      <c r="U25" s="57" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V25" s="57" t="e">
-        <f>_xll.qlIndexFixing($H25,$N25,TRUE,$T25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W25" s="7">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C26" s="53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D26:D33" si="14">OffCalendar</f>
         <v>HongKong::HKEx</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F26" s="53" t="b">
         <v>1</v>
@@ -15468,31 +15458,28 @@
         <v>133</v>
       </c>
       <c r="H26" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor3M</v>
-      </c>
-      <c r="I26" s="54" t="str">
-        <f>_xll.qlRelinkableHandleYieldTermStructure(OffCurrency&amp;B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3M#0001</v>
-      </c>
+        <f t="shared" ref="H26:H33" si="15">PROPER(OffCurrency)&amp;OffFamilyName&amp;B26</f>
+        <v>CnhHiborON</v>
+      </c>
+      <c r="I26" s="54"/>
       <c r="J26" s="54" t="str">
         <f>_xll.qlOvernightIndex(H26,OffFamilyName,C26,OnCurrency,OffCalendar,G26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3M#0001</v>
+        <v>CnhHiborON#0003</v>
       </c>
       <c r="K26" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B26&amp;"LastFixing"&amp;QuoteSuffix,J26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3MLastFixing_Quote#0001</v>
+        <v>CnhHiborONLastFixing_Quote#0003</v>
       </c>
       <c r="L26" s="139"/>
       <c r="M26" s="57" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH3MDF=</v>
+        <f t="shared" ref="M26:M33" si="16">"HI"&amp;OffCurrency&amp;B26&amp;"DF"&amp;"="</f>
+        <v>HICNHONDF=</v>
       </c>
       <c r="N26" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O26" s="59">
-        <v>3.3538899999999998</v>
+        <v>5.7222200000000001</v>
       </c>
       <c r="P26" s="59" t="b">
         <f t="shared" si="2"/>
@@ -15509,10 +15496,10 @@
       </c>
       <c r="T26" s="57">
         <f>IF($Q26,_xll.qlIndexFixing($H26,$N26,FALSE,$P26),"-")</f>
-        <v>3.5972200000000003E-2</v>
+        <v>5.7222200000000001E-2</v>
       </c>
       <c r="U26" s="57" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U26:U33" si="17">S26-T26</f>
         <v>#NUM!</v>
       </c>
       <c r="V26" s="57" t="e">
@@ -15520,23 +15507,24 @@
         <v>#NUM!</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="15"/>
+        <f>IF(ISERROR(U26),0,ABS(U26))</f>
         <v>0</v>
       </c>
+      <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="53" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C27" s="53">
         <v>2</v>
       </c>
       <c r="D27" s="53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>HongKong::HKEx</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F27" s="53" t="b">
         <v>1</v>
@@ -15545,28 +15533,28 @@
         <v>133</v>
       </c>
       <c r="H27" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor6M</v>
+        <f t="shared" si="15"/>
+        <v>CnhHibor1W</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="54" t="str">
         <f>_xll.qlOvernightIndex(H27,OffFamilyName,C27,OnCurrency,OffCalendar,G27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6M#0001</v>
+        <v>CnhHibor1W#0003</v>
       </c>
       <c r="K27" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B27&amp;"LastFixing"&amp;QuoteSuffix,J27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6MLastFixing_Quote#0001</v>
+        <v>CnhHibor1WLastFixing_Quote#0003</v>
       </c>
       <c r="L27" s="139"/>
       <c r="M27" s="57" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH6MDF=</v>
+        <f t="shared" si="16"/>
+        <v>HICNH1WDF=</v>
       </c>
       <c r="N27" s="58">
-        <v>41901</v>
+        <v>41904</v>
       </c>
       <c r="O27" s="59">
-        <v>3.3255599999999998</v>
+        <v>4.4305599999999998</v>
       </c>
       <c r="P27" s="59" t="b">
         <f t="shared" si="2"/>
@@ -15583,10 +15571,10 @@
       </c>
       <c r="T27" s="57">
         <f>IF($Q27,_xll.qlIndexFixing($H27,$N27,FALSE,$P27),"-")</f>
-        <v>3.5972200000000003E-2</v>
+        <v>3.3505600000000003E-2</v>
       </c>
       <c r="U27" s="57" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="V27" s="57" t="e">
@@ -15594,125 +15582,507 @@
         <v>#NUM!</v>
       </c>
       <c r="W27" s="7">
+        <f t="shared" ref="W27:W33" si="18">IF(ISERROR(U27),0,ABS(U27))</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="53">
+        <v>2</v>
+      </c>
+      <c r="D28" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="53" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="55">
-        <v>2</v>
-      </c>
-      <c r="D28" s="55" t="str">
-        <f t="shared" si="11"/>
-        <v>HongKong::HKEx</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="55" t="str">
-        <f t="shared" si="12"/>
-        <v>CnhHibor1Y</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32" t="str">
+        <v>CnhHibor2W</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54" t="str">
         <f>_xll.qlOvernightIndex(H28,OffFamilyName,C28,OnCurrency,OffCalendar,G28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1Y#0001</v>
-      </c>
-      <c r="K28" s="56" t="str">
+        <v>CnhHibor2W#0003</v>
+      </c>
+      <c r="K28" s="54" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B28&amp;"LastFixing"&amp;QuoteSuffix,J28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1YLastFixing_Quote#0001</v>
+        <v>CnhHibor2WLastFixing_Quote#0003</v>
       </c>
       <c r="L28" s="139"/>
-      <c r="M28" s="61" t="str">
-        <f t="shared" si="13"/>
-        <v>HICNH1YDF=</v>
-      </c>
-      <c r="N28" s="62">
-        <v>41901</v>
-      </c>
-      <c r="O28" s="63">
-        <v>3.3527800000000001</v>
-      </c>
-      <c r="P28" s="63" t="b">
+      <c r="M28" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH2WDF=</v>
+      </c>
+      <c r="N28" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O28" s="59">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="P28" s="59" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="64" t="b">
+      <c r="Q28" s="60" t="b">
         <f>IF(O28,_xll.qlIndexAddFixings(H28,N28,O28/100,TRUE),NA())</f>
         <v>1</v>
       </c>
       <c r="R28" s="139"/>
-      <c r="S28" s="61" t="e">
-        <f>_xll.qlIndexFixing($H27,$N27,TRUE,$P27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T28" s="61">
-        <f>IF($Q27,_xll.qlIndexFixing($H27,$N27,FALSE,$P27),"-")</f>
-        <v>3.5972200000000003E-2</v>
-      </c>
-      <c r="U28" s="61" t="e">
+      <c r="S28" s="57" t="e">
+        <f>_xll.qlIndexFixing($H28,$N28,TRUE,$P28)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" s="57">
+        <f>IF($Q28,_xll.qlIndexFixing($H28,$N28,FALSE,$P28),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U28" s="57" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V28" s="57" t="e">
+        <f>_xll.qlIndexFixing($H28,$N28,TRUE,$T28)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="53">
+        <v>2</v>
+      </c>
+      <c r="D29" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V28" s="61" t="e">
-        <f>_xll.qlIndexFixing($H27,$N27,TRUE,$T28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="W28" s="8">
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="53" t="str">
         <f t="shared" si="15"/>
+        <v>CnhHibor1M</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54" t="str">
+        <f>_xll.qlOvernightIndex(H29,OffFamilyName,C29,OnCurrency,OffCalendar,G29,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1M#0003</v>
+      </c>
+      <c r="K29" s="54" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B29&amp;"LastFixing"&amp;QuoteSuffix,J29,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1MLastFixing_Quote#0003</v>
+      </c>
+      <c r="L29" s="139"/>
+      <c r="M29" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH1MDF=</v>
+      </c>
+      <c r="N29" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O29" s="59">
+        <v>3.6583299999999999</v>
+      </c>
+      <c r="P29" s="59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="60" t="b">
+        <f>IF(O29,_xll.qlIndexAddFixings(H29,N29,O29/100,TRUE),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="139"/>
+      <c r="S29" s="57" t="e">
+        <f>_xll.qlIndexFixing($H29,$N29,TRUE,$P29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T29" s="57">
+        <f>IF($Q29,_xll.qlIndexFixing($H29,$N29,FALSE,$P29),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U29" s="57" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V29" s="57" t="e">
+        <f>_xll.qlIndexFixing($H29,$N29,TRUE,$T29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="53">
+        <v>2</v>
+      </c>
+      <c r="D30" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v>CnhHibor2M</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54" t="str">
+        <f>_xll.qlOvernightIndex(H30,OffFamilyName,C30,OnCurrency,OffCalendar,G30,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor2M#0003</v>
+      </c>
+      <c r="K30" s="54" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B30&amp;"LastFixing"&amp;QuoteSuffix,J30,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor2MLastFixing_Quote#0003</v>
+      </c>
+      <c r="L30" s="139"/>
+      <c r="M30" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH2MDF=</v>
+      </c>
+      <c r="N30" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O30" s="59">
+        <v>3.4511099999999999</v>
+      </c>
+      <c r="P30" s="59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="60" t="b">
+        <f>IF(O30,_xll.qlIndexAddFixings(H30,N30,O30/100,TRUE),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="139"/>
+      <c r="S30" s="57" t="e">
+        <f>_xll.qlIndexFixing($H30,$N30,TRUE,$P30)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T30" s="57">
+        <f>IF($Q30,_xll.qlIndexFixing($H30,$N30,FALSE,$P30),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U30" s="57" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V30" s="57" t="e">
+        <f>_xll.qlIndexFixing($H30,$N30,TRUE,$T30)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="53">
+        <v>2</v>
+      </c>
+      <c r="D31" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v>CnhHibor3M</v>
+      </c>
+      <c r="I31" s="54" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(OffCurrency&amp;B31,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CNH3M#0003</v>
+      </c>
+      <c r="J31" s="54" t="str">
+        <f>_xll.qlOvernightIndex(H31,OffFamilyName,C31,OnCurrency,OffCalendar,G31,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor3M#0003</v>
+      </c>
+      <c r="K31" s="54" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B31&amp;"LastFixing"&amp;QuoteSuffix,J31,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor3MLastFixing_Quote#0003</v>
+      </c>
+      <c r="L31" s="139"/>
+      <c r="M31" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH3MDF=</v>
+      </c>
+      <c r="N31" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O31" s="59">
+        <v>3.3505600000000002</v>
+      </c>
+      <c r="P31" s="59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="60" t="b">
+        <f>IF(O31,_xll.qlIndexAddFixings(H31,N31,O31/100,TRUE),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="139"/>
+      <c r="S31" s="57" t="e">
+        <f>_xll.qlIndexFixing($H31,$N31,TRUE,$P31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" s="57">
+        <f>IF($Q31,_xll.qlIndexFixing($H31,$N31,FALSE,$P31),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U31" s="57" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V31" s="57" t="e">
+        <f>_xll.qlIndexFixing($H31,$N31,TRUE,$T31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="53">
+        <v>2</v>
+      </c>
+      <c r="D32" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v>CnhHibor6M</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54" t="str">
+        <f>_xll.qlOvernightIndex(H32,OffFamilyName,C32,OnCurrency,OffCalendar,G32,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor6M#0003</v>
+      </c>
+      <c r="K32" s="54" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B32&amp;"LastFixing"&amp;QuoteSuffix,J32,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor6MLastFixing_Quote#0003</v>
+      </c>
+      <c r="L32" s="139"/>
+      <c r="M32" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH6MDF=</v>
+      </c>
+      <c r="N32" s="58">
+        <v>41904</v>
+      </c>
+      <c r="O32" s="59">
+        <v>3.33222</v>
+      </c>
+      <c r="P32" s="59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="60" t="b">
+        <f>IF(O32,_xll.qlIndexAddFixings(H32,N32,O32/100,TRUE),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="139"/>
+      <c r="S32" s="57" t="e">
+        <f>_xll.qlIndexFixing($H32,$N32,TRUE,$P32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T32" s="57">
+        <f>IF($Q32,_xll.qlIndexFixing($H32,$N32,FALSE,$P32),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U32" s="57" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V32" s="57" t="e">
+        <f>_xll.qlIndexFixing($H32,$N32,TRUE,$T32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="55">
+        <v>2</v>
+      </c>
+      <c r="D33" s="55" t="str">
+        <f t="shared" si="14"/>
+        <v>HongKong::HKEx</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="55" t="str">
+        <f t="shared" si="15"/>
+        <v>CnhHibor1Y</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32" t="str">
+        <f>_xll.qlOvernightIndex(H33,OffFamilyName,C33,OnCurrency,OffCalendar,G33,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1Y#0003</v>
+      </c>
+      <c r="K33" s="56" t="str">
+        <f>_xll.qlLastFixingQuote(PROPER(OffCurrency)&amp;OffFamilyName&amp;B33&amp;"LastFixing"&amp;QuoteSuffix,J33,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1YLastFixing_Quote#0003</v>
+      </c>
+      <c r="L33" s="139"/>
+      <c r="M33" s="61" t="str">
+        <f t="shared" si="16"/>
+        <v>HICNH1YDF=</v>
+      </c>
+      <c r="N33" s="62">
+        <v>41904</v>
+      </c>
+      <c r="O33" s="63">
+        <v>3.3533300000000001</v>
+      </c>
+      <c r="P33" s="63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="64" t="b">
+        <f>IF(O33,_xll.qlIndexAddFixings(H33,N33,O33/100,TRUE),NA())</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="139"/>
+      <c r="S33" s="61" t="e">
+        <f>_xll.qlIndexFixing($H32,$N32,TRUE,$P32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T33" s="61">
+        <f>IF($Q32,_xll.qlIndexFixing($H32,$N32,FALSE,$P32),"-")</f>
+        <v>3.3505600000000003E-2</v>
+      </c>
+      <c r="U33" s="61" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V33" s="61" t="e">
+        <f>_xll.qlIndexFixing($H32,$N32,TRUE,$T33)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W33" s="8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="U8:U16">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="U9:U17">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21:U28">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="U26:U33">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T28">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="T26:T33">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:U20">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="U18:U21">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E28">
+  <conditionalFormatting sqref="U22:U25">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E33">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G33">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D25">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15720,7 +16090,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="M19" formula="1"/>
+    <ignoredError sqref="M20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15784,7 +16154,7 @@
       <c r="E2" s="83"/>
       <c r="G2" s="125" t="str">
         <f>_xll.RData(G3:G20,H2:H2,,ReutersRtMode,,H3)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>85</v>
@@ -15816,7 +16186,7 @@
       </c>
       <c r="D3" s="84" t="str">
         <f>_xll.qlSimpleQuote(C3,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYOND_Quote#0001</v>
+        <v>CNYOND_Quote#0000</v>
       </c>
       <c r="E3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -15827,7 +16197,7 @@
         <v>SHICNYOND=</v>
       </c>
       <c r="H3" s="92">
-        <v>2.84</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>157</v>
@@ -15840,11 +16210,11 @@
       </c>
       <c r="L3" s="92">
         <f t="array" ref="L3:L20">QuoteLive</f>
-        <v>2.84</v>
-      </c>
-      <c r="M3" s="92" t="e">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="M3" s="92">
         <f>_xll.qlSimpleQuoteSetValue(D3,L3/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -15858,7 +16228,7 @@
       </c>
       <c r="D4" s="86" t="str">
         <f>_xll.qlSimpleQuote(C4,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYTND_Quote#0001</v>
+        <v>CNYTND_Quote#0000</v>
       </c>
       <c r="E4" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -15899,7 +16269,7 @@
       </c>
       <c r="D5" s="86" t="str">
         <f>_xll.qlSimpleQuote(C5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSND_Quote#0001</v>
+        <v>CNYSND_Quote#0000</v>
       </c>
       <c r="E5" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -15940,7 +16310,7 @@
       </c>
       <c r="D6" s="86" t="str">
         <f>_xll.qlSimpleQuote(C6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYSWD_Quote#0001</v>
+        <v>CNYSWD_Quote#0000</v>
       </c>
       <c r="E6" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -15951,7 +16321,7 @@
         <v>SHICNYSWD=</v>
       </c>
       <c r="H6" s="93">
-        <v>3.3</v>
+        <v>3.198</v>
       </c>
       <c r="I6" s="80" t="s">
         <v>157</v>
@@ -15963,11 +16333,11 @@
         <v>157</v>
       </c>
       <c r="L6" s="93">
-        <v>3.3</v>
-      </c>
-      <c r="M6" s="93" t="e">
+        <v>3.198</v>
+      </c>
+      <c r="M6" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D6,L6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -15981,7 +16351,7 @@
       </c>
       <c r="D7" s="86" t="str">
         <f>_xll.qlSimpleQuote(C7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2WD_Quote#0001</v>
+        <v>CNY2WD_Quote#0000</v>
       </c>
       <c r="E7" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -15992,7 +16362,7 @@
         <v>SHICNY2WD=</v>
       </c>
       <c r="H7" s="93">
-        <v>3.5529999999999999</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="I7" s="80" t="s">
         <v>157</v>
@@ -16004,11 +16374,11 @@
         <v>157</v>
       </c>
       <c r="L7" s="93">
-        <v>3.5529999999999999</v>
-      </c>
-      <c r="M7" s="93" t="e">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="M7" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D7,L7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -16022,7 +16392,7 @@
       </c>
       <c r="D8" s="86" t="str">
         <f>_xll.qlSimpleQuote(C8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3WD_Quote#0001</v>
+        <v>CNY3WD_Quote#0000</v>
       </c>
       <c r="E8" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -16063,7 +16433,7 @@
       </c>
       <c r="D9" s="86" t="str">
         <f>_xll.qlSimpleQuote(C9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1MD_Quote#0001</v>
+        <v>CNY1MD_Quote#0000</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -16074,7 +16444,7 @@
         <v>SHICNY1MD=</v>
       </c>
       <c r="H9" s="93">
-        <v>4.3099999999999996</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="I9" s="80" t="s">
         <v>157</v>
@@ -16086,11 +16456,11 @@
         <v>157</v>
       </c>
       <c r="L9" s="93">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="M9" s="93" t="e">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="M9" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D9,L9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -16104,7 +16474,7 @@
       </c>
       <c r="D10" s="86" t="str">
         <f>_xll.qlSimpleQuote(C10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2MD_Quote#0001</v>
+        <v>CNY2MD_Quote#0000</v>
       </c>
       <c r="E10" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -16145,7 +16515,7 @@
       </c>
       <c r="D11" s="86" t="str">
         <f>_xll.qlSimpleQuote(C11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3MD_Quote#0001</v>
+        <v>CNY3MD_Quote#0000</v>
       </c>
       <c r="E11" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -16156,7 +16526,7 @@
         <v>SHICNY3MD=</v>
       </c>
       <c r="H11" s="93">
-        <v>4.6070000000000002</v>
+        <v>4.5986000000000002</v>
       </c>
       <c r="I11" s="80" t="s">
         <v>157</v>
@@ -16168,11 +16538,11 @@
         <v>157</v>
       </c>
       <c r="L11" s="93">
-        <v>4.6070000000000002</v>
-      </c>
-      <c r="M11" s="93" t="e">
+        <v>4.5986000000000002</v>
+      </c>
+      <c r="M11" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D11,L11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -16186,7 +16556,7 @@
       </c>
       <c r="D12" s="86" t="str">
         <f>_xll.qlSimpleQuote(C12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4MD_Quote#0001</v>
+        <v>CNY4MD_Quote#0000</v>
       </c>
       <c r="E12" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -16227,7 +16597,7 @@
       </c>
       <c r="D13" s="86" t="str">
         <f>_xll.qlSimpleQuote(C13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5MD_Quote#0001</v>
+        <v>CNY5MD_Quote#0000</v>
       </c>
       <c r="E13" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -16268,7 +16638,7 @@
       </c>
       <c r="D14" s="86" t="str">
         <f>_xll.qlSimpleQuote(C14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6MD_Quote#0001</v>
+        <v>CNY6MD_Quote#0000</v>
       </c>
       <c r="E14" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -16279,7 +16649,7 @@
         <v>SHICNY6MD=</v>
       </c>
       <c r="H14" s="93">
-        <v>4.8419999999999996</v>
+        <v>4.8323999999999998</v>
       </c>
       <c r="I14" s="80" t="s">
         <v>157</v>
@@ -16291,11 +16661,11 @@
         <v>157</v>
       </c>
       <c r="L14" s="93">
-        <v>4.8419999999999996</v>
-      </c>
-      <c r="M14" s="93" t="e">
+        <v>4.8323999999999998</v>
+      </c>
+      <c r="M14" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D14,L14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -16309,7 +16679,7 @@
       </c>
       <c r="D15" s="86" t="str">
         <f>_xll.qlSimpleQuote(C15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7MD_Quote#0001</v>
+        <v>CNY7MD_Quote#0000</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -16350,7 +16720,7 @@
       </c>
       <c r="D16" s="86" t="str">
         <f>_xll.qlSimpleQuote(C16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY8MD_Quote#0001</v>
+        <v>CNY8MD_Quote#0000</v>
       </c>
       <c r="E16" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -16391,7 +16761,7 @@
       </c>
       <c r="D17" s="86" t="str">
         <f>_xll.qlSimpleQuote(C17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9MD_Quote#0001</v>
+        <v>CNY9MD_Quote#0000</v>
       </c>
       <c r="E17" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -16402,7 +16772,7 @@
         <v>SHICNY9MD=</v>
       </c>
       <c r="H17" s="93">
-        <v>4.9227999999999996</v>
+        <v>4.9165000000000001</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>158</v>
@@ -16414,11 +16784,11 @@
         <v>157</v>
       </c>
       <c r="L17" s="93">
-        <v>4.9227999999999996</v>
-      </c>
-      <c r="M17" s="93" t="e">
+        <v>4.9165000000000001</v>
+      </c>
+      <c r="M17" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D17,L17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -16432,7 +16802,7 @@
       </c>
       <c r="D18" s="86" t="str">
         <f>_xll.qlSimpleQuote(C18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY10MD_Quote#0001</v>
+        <v>CNY10MD_Quote#0000</v>
       </c>
       <c r="E18" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -16473,7 +16843,7 @@
       </c>
       <c r="D19" s="86" t="str">
         <f>_xll.qlSimpleQuote(C19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY11MD_Quote#0001</v>
+        <v>CNY11MD_Quote#0000</v>
       </c>
       <c r="E19" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -16514,7 +16884,7 @@
       </c>
       <c r="D20" s="88" t="str">
         <f>_xll.qlSimpleQuote(C20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1YD_Quote#0001</v>
+        <v>CNY1YD_Quote#0000</v>
       </c>
       <c r="E20" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -16525,7 +16895,7 @@
         <v>SHICNY1YD=</v>
       </c>
       <c r="H20" s="94">
-        <v>4.9974999999999996</v>
+        <v>4.9965000000000002</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>157</v>
@@ -16537,11 +16907,11 @@
         <v>157</v>
       </c>
       <c r="L20" s="94">
-        <v>4.9974999999999996</v>
-      </c>
-      <c r="M20" s="94" t="e">
+        <v>4.9965000000000002</v>
+      </c>
+      <c r="M20" s="94">
         <f>_xll.qlSimpleQuoteSetValue(D20,L20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -16632,7 +17002,7 @@
       </c>
       <c r="G2" s="125" t="str">
         <f>_xll.RData(G3:G20,H2,"RTFEED:IDN",,,H3)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>85</v>
@@ -16664,7 +17034,7 @@
       </c>
       <c r="D3" s="84" t="str">
         <f>_xll.qlSimpleQuote(C3,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOND_Quote#0001</v>
+        <v>CNHOND_Quote#0000</v>
       </c>
       <c r="E3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -16675,7 +17045,7 @@
         <v>HICNHONDF=</v>
       </c>
       <c r="H3" s="92">
-        <v>7.0888900000000001</v>
+        <v>5.7222200000000001</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>157</v>
@@ -16688,11 +17058,11 @@
       </c>
       <c r="L3" s="92">
         <f t="array" ref="L3:L20">QuoteLive</f>
-        <v>7.0888900000000001</v>
-      </c>
-      <c r="M3" s="92" t="e">
+        <v>5.7222200000000001</v>
+      </c>
+      <c r="M3" s="92">
         <f>_xll.qlSimpleQuoteSetValue(D3,L3/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -16706,7 +17076,7 @@
       </c>
       <c r="D4" s="86" t="str">
         <f>_xll.qlSimpleQuote(C4,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHTND_Quote#0001</v>
+        <v>CNHTND_Quote#0000</v>
       </c>
       <c r="E4" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -16747,7 +17117,7 @@
       </c>
       <c r="D5" s="86" t="str">
         <f>_xll.qlSimpleQuote(C5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHSND_Quote#0001</v>
+        <v>CNHSND_Quote#0000</v>
       </c>
       <c r="E5" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -16788,7 +17158,7 @@
       </c>
       <c r="D6" s="86" t="str">
         <f>_xll.qlSimpleQuote(C6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHSWD_Quote#0001</v>
+        <v>CNHSWD_Quote#0000</v>
       </c>
       <c r="E6" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -16829,7 +17199,7 @@
       </c>
       <c r="D7" s="86" t="str">
         <f>_xll.qlSimpleQuote(C7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2WD_Quote#0001</v>
+        <v>CNH2WD_Quote#0000</v>
       </c>
       <c r="E7" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -16840,7 +17210,7 @@
         <v>HICNH2WDF=</v>
       </c>
       <c r="H7" s="93">
-        <v>4.2699999999999996</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="I7" s="80" t="s">
         <v>157</v>
@@ -16852,11 +17222,11 @@
         <v>157</v>
       </c>
       <c r="L7" s="93">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="M7" s="93" t="e">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="M7" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D7,L7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -16870,7 +17240,7 @@
       </c>
       <c r="D8" s="86" t="str">
         <f>_xll.qlSimpleQuote(C8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3WD_Quote#0001</v>
+        <v>CNH3WD_Quote#0000</v>
       </c>
       <c r="E8" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -16911,7 +17281,7 @@
       </c>
       <c r="D9" s="86" t="str">
         <f>_xll.qlSimpleQuote(C9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1MD_Quote#0001</v>
+        <v>CNH1MD_Quote#0000</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -16922,7 +17292,7 @@
         <v>HICNH1MDF=</v>
       </c>
       <c r="H9" s="93">
-        <v>3.5972200000000001</v>
+        <v>3.6583299999999999</v>
       </c>
       <c r="I9" s="80" t="s">
         <v>157</v>
@@ -16934,11 +17304,11 @@
         <v>157</v>
       </c>
       <c r="L9" s="93">
-        <v>3.5972200000000001</v>
-      </c>
-      <c r="M9" s="93" t="e">
+        <v>3.6583299999999999</v>
+      </c>
+      <c r="M9" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D9,L9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -16952,7 +17322,7 @@
       </c>
       <c r="D10" s="86" t="str">
         <f>_xll.qlSimpleQuote(C10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2MD_Quote#0001</v>
+        <v>CNH2MD_Quote#0000</v>
       </c>
       <c r="E10" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -16963,7 +17333,7 @@
         <v>HICNH2MDF=</v>
       </c>
       <c r="H10" s="93">
-        <v>3.38889</v>
+        <v>3.4511099999999999</v>
       </c>
       <c r="I10" s="80" t="s">
         <v>157</v>
@@ -16975,11 +17345,11 @@
         <v>157</v>
       </c>
       <c r="L10" s="93">
-        <v>3.38889</v>
-      </c>
-      <c r="M10" s="93" t="e">
+        <v>3.4511099999999999</v>
+      </c>
+      <c r="M10" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D10,L10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -16993,7 +17363,7 @@
       </c>
       <c r="D11" s="86" t="str">
         <f>_xll.qlSimpleQuote(C11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3MD_Quote#0001</v>
+        <v>CNH3MD_Quote#0000</v>
       </c>
       <c r="E11" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -17004,7 +17374,7 @@
         <v>HICNH3MDF=</v>
       </c>
       <c r="H11" s="93">
-        <v>3.3538899999999998</v>
+        <v>3.3505600000000002</v>
       </c>
       <c r="I11" s="80" t="s">
         <v>157</v>
@@ -17016,11 +17386,11 @@
         <v>157</v>
       </c>
       <c r="L11" s="93">
-        <v>3.3538899999999998</v>
-      </c>
-      <c r="M11" s="93" t="e">
+        <v>3.3505600000000002</v>
+      </c>
+      <c r="M11" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D11,L11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -17034,7 +17404,7 @@
       </c>
       <c r="D12" s="86" t="str">
         <f>_xll.qlSimpleQuote(C12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4MD_Quote#0001</v>
+        <v>CNH4MD_Quote#0000</v>
       </c>
       <c r="E12" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -17075,7 +17445,7 @@
       </c>
       <c r="D13" s="86" t="str">
         <f>_xll.qlSimpleQuote(C13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5MD_Quote#0001</v>
+        <v>CNH5MD_Quote#0000</v>
       </c>
       <c r="E13" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -17116,7 +17486,7 @@
       </c>
       <c r="D14" s="86" t="str">
         <f>_xll.qlSimpleQuote(C14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6MD_Quote#0001</v>
+        <v>CNH6MD_Quote#0000</v>
       </c>
       <c r="E14" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -17127,7 +17497,7 @@
         <v>HICNH6MDF=</v>
       </c>
       <c r="H14" s="93">
-        <v>3.3255599999999998</v>
+        <v>3.33222</v>
       </c>
       <c r="I14" s="80" t="s">
         <v>157</v>
@@ -17139,11 +17509,11 @@
         <v>157</v>
       </c>
       <c r="L14" s="93">
-        <v>3.3255599999999998</v>
-      </c>
-      <c r="M14" s="93" t="e">
+        <v>3.33222</v>
+      </c>
+      <c r="M14" s="93">
         <f>_xll.qlSimpleQuoteSetValue(D14,L14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -17157,7 +17527,7 @@
       </c>
       <c r="D15" s="86" t="str">
         <f>_xll.qlSimpleQuote(C15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH7MD_Quote#0001</v>
+        <v>CNH7MD_Quote#0000</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -17198,7 +17568,7 @@
       </c>
       <c r="D16" s="86" t="str">
         <f>_xll.qlSimpleQuote(C16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH8MD_Quote#0001</v>
+        <v>CNH8MD_Quote#0000</v>
       </c>
       <c r="E16" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -17239,7 +17609,7 @@
       </c>
       <c r="D17" s="86" t="str">
         <f>_xll.qlSimpleQuote(C17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9MD_Quote#0001</v>
+        <v>CNH9MD_Quote#0000</v>
       </c>
       <c r="E17" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -17280,7 +17650,7 @@
       </c>
       <c r="D18" s="86" t="str">
         <f>_xll.qlSimpleQuote(C18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH10MD_Quote#0001</v>
+        <v>CNH10MD_Quote#0000</v>
       </c>
       <c r="E18" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -17321,7 +17691,7 @@
       </c>
       <c r="D19" s="86" t="str">
         <f>_xll.qlSimpleQuote(C19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH11MD_Quote#0001</v>
+        <v>CNH11MD_Quote#0000</v>
       </c>
       <c r="E19" s="87" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -17362,7 +17732,7 @@
       </c>
       <c r="D20" s="88" t="str">
         <f>_xll.qlSimpleQuote(C20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1YD_Quote#0001</v>
+        <v>CNH1YD_Quote#0000</v>
       </c>
       <c r="E20" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -17373,7 +17743,7 @@
         <v>HICNH1YDF=</v>
       </c>
       <c r="H20" s="94">
-        <v>3.3527800000000001</v>
+        <v>3.3533300000000001</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>157</v>
@@ -17385,11 +17755,11 @@
         <v>157</v>
       </c>
       <c r="L20" s="94">
-        <v>3.3527800000000001</v>
-      </c>
-      <c r="M20" s="94" t="e">
+        <v>3.3533300000000001</v>
+      </c>
+      <c r="M20" s="94">
         <f>_xll.qlSimpleQuoteSetValue(D20,L20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -17484,7 +17854,7 @@
       <c r="Q3" s="80"/>
       <c r="S3" s="78">
         <f>_xll.ohTrigger(S5:S31)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="80"/>
     </row>
@@ -17508,7 +17878,7 @@
       </c>
       <c r="I4" s="125" t="str">
         <f>_xll.RData(I5:I31,J4:M4,"RTFEED:IDN",ReutersRtMode,,J5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="J4" s="91" t="s">
         <v>74</v>
@@ -17554,7 +17924,7 @@
       </c>
       <c r="E5" s="114" t="str">
         <f>_xll.qlSimpleQuote(D5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1X4F_Quote#0001</v>
+        <v>CNY1X4F_Quote#0000</v>
       </c>
       <c r="F5" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -17615,7 +17985,7 @@
       </c>
       <c r="E6" s="114" t="str">
         <f>_xll.qlSimpleQuote(D6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2X5F_Quote#0001</v>
+        <v>CNY2X5F_Quote#0000</v>
       </c>
       <c r="F6" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -17674,7 +18044,7 @@
       </c>
       <c r="E7" s="114" t="str">
         <f>_xll.qlSimpleQuote(D7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3X6F_Quote#0001</v>
+        <v>CNY3X6F_Quote#0000</v>
       </c>
       <c r="F7" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -17733,7 +18103,7 @@
       </c>
       <c r="E8" s="114" t="str">
         <f>_xll.qlSimpleQuote(D8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4X7F_Quote#0001</v>
+        <v>CNY4X7F_Quote#0000</v>
       </c>
       <c r="F8" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -17792,7 +18162,7 @@
       </c>
       <c r="E9" s="114" t="str">
         <f>_xll.qlSimpleQuote(D9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5X8F_Quote#0001</v>
+        <v>CNY5X8F_Quote#0000</v>
       </c>
       <c r="F9" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -17851,7 +18221,7 @@
       </c>
       <c r="E10" s="114" t="str">
         <f>_xll.qlSimpleQuote(D10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6X9F_Quote#0001</v>
+        <v>CNY6X9F_Quote#0000</v>
       </c>
       <c r="F10" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -17910,7 +18280,7 @@
       </c>
       <c r="E11" s="111" t="str">
         <f>_xll.qlSimpleQuote(D11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1X7F_Quote#0001</v>
+        <v>CNY1X7F_Quote#0000</v>
       </c>
       <c r="F11" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -17969,7 +18339,7 @@
       </c>
       <c r="E12" s="114" t="str">
         <f>_xll.qlSimpleQuote(D12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2X8F_Quote#0001</v>
+        <v>CNY2X8F_Quote#0000</v>
       </c>
       <c r="F12" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -18028,7 +18398,7 @@
       </c>
       <c r="E13" s="114" t="str">
         <f>_xll.qlSimpleQuote(D13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3X9F_Quote#0001</v>
+        <v>CNY3X9F_Quote#0000</v>
       </c>
       <c r="F13" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -18087,7 +18457,7 @@
       </c>
       <c r="E14" s="114" t="str">
         <f>_xll.qlSimpleQuote(D14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4X10F_Quote#0001</v>
+        <v>CNY4X10F_Quote#0000</v>
       </c>
       <c r="F14" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -18146,7 +18516,7 @@
       </c>
       <c r="E15" s="114" t="str">
         <f>_xll.qlSimpleQuote(D15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5X11F_Quote#0001</v>
+        <v>CNY5X11F_Quote#0000</v>
       </c>
       <c r="F15" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -18205,7 +18575,7 @@
       </c>
       <c r="E16" s="114" t="str">
         <f>_xll.qlSimpleQuote(D16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6X12F_Quote#0001</v>
+        <v>CNY6X12F_Quote#0000</v>
       </c>
       <c r="F16" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -18264,7 +18634,7 @@
       </c>
       <c r="E17" s="114" t="str">
         <f>_xll.qlSimpleQuote(D17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9X15F_Quote#0001</v>
+        <v>CNY9X15F_Quote#0000</v>
       </c>
       <c r="F17" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -18323,7 +18693,7 @@
       </c>
       <c r="E18" s="114" t="str">
         <f>_xll.qlSimpleQuote(D18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY12X18F_Quote#0001</v>
+        <v>CNY12X18F_Quote#0000</v>
       </c>
       <c r="F18" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -18382,7 +18752,7 @@
       </c>
       <c r="E19" s="109" t="str">
         <f>_xll.qlSimpleQuote(D19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY18X24F_Quote#0001</v>
+        <v>CNY18X24F_Quote#0000</v>
       </c>
       <c r="F19" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -18440,7 +18810,7 @@
       </c>
       <c r="E20" s="111" t="str">
         <f>_xll.qlSimpleQuote(D20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY1x13F_Quote#0001</v>
+        <v>CNY1x13F_Quote#0000</v>
       </c>
       <c r="F20" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -18494,7 +18864,7 @@
       </c>
       <c r="E21" s="114" t="str">
         <f>_xll.qlSimpleQuote(D21,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY2x14F_Quote#0001</v>
+        <v>CNY2x14F_Quote#0000</v>
       </c>
       <c r="F21" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -18548,7 +18918,7 @@
       </c>
       <c r="E22" s="114" t="str">
         <f>_xll.qlSimpleQuote(D22,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY3x15F_Quote#0001</v>
+        <v>CNY3x15F_Quote#0000</v>
       </c>
       <c r="F22" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -18602,7 +18972,7 @@
       </c>
       <c r="E23" s="114" t="str">
         <f>_xll.qlSimpleQuote(D23,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY4x16F_Quote#0001</v>
+        <v>CNY4x16F_Quote#0000</v>
       </c>
       <c r="F23" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -18656,7 +19026,7 @@
       </c>
       <c r="E24" s="114" t="str">
         <f>_xll.qlSimpleQuote(D24,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY5x17F_Quote#0001</v>
+        <v>CNY5x17F_Quote#0000</v>
       </c>
       <c r="F24" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -18710,7 +19080,7 @@
       </c>
       <c r="E25" s="114" t="str">
         <f>_xll.qlSimpleQuote(D25,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY6x18F_Quote#0001</v>
+        <v>CNY6x18F_Quote#0000</v>
       </c>
       <c r="F25" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -18764,7 +19134,7 @@
       </c>
       <c r="E26" s="114" t="str">
         <f>_xll.qlSimpleQuote(D26,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY7x19F_Quote#0001</v>
+        <v>CNY7x19F_Quote#0000</v>
       </c>
       <c r="F26" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -18818,7 +19188,7 @@
       </c>
       <c r="E27" s="114" t="str">
         <f>_xll.qlSimpleQuote(D27,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY8x20F_Quote#0001</v>
+        <v>CNY8x20F_Quote#0000</v>
       </c>
       <c r="F27" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -18872,7 +19242,7 @@
       </c>
       <c r="E28" s="114" t="str">
         <f>_xll.qlSimpleQuote(D28,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY9x21F_Quote#0001</v>
+        <v>CNY9x21F_Quote#0000</v>
       </c>
       <c r="F28" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -18926,7 +19296,7 @@
       </c>
       <c r="E29" s="114" t="str">
         <f>_xll.qlSimpleQuote(D29,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY10x22F_Quote#0001</v>
+        <v>CNY10x22F_Quote#0000</v>
       </c>
       <c r="F29" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -18980,7 +19350,7 @@
       </c>
       <c r="E30" s="114" t="str">
         <f>_xll.qlSimpleQuote(D30,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY11x23F_Quote#0001</v>
+        <v>CNY11x23F_Quote#0000</v>
       </c>
       <c r="F30" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -19034,7 +19404,7 @@
       </c>
       <c r="E31" s="109" t="str">
         <f>_xll.qlSimpleQuote(D31,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNY12x24F_Quote#0001</v>
+        <v>CNY12x24F_Quote#0000</v>
       </c>
       <c r="F31" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -19151,7 +19521,7 @@
       <c r="Q3" s="80"/>
       <c r="S3" s="78">
         <f>_xll.ohTrigger(S5:S31)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="80"/>
     </row>
@@ -19175,7 +19545,7 @@
       </c>
       <c r="I4" s="125" t="str">
         <f>_xll.RData(I5:I31,J4:M4,"RTFEED:IDN",ReutersRtMode,,J5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
       </c>
       <c r="J4" s="91" t="s">
         <v>74</v>
@@ -19221,7 +19591,7 @@
       </c>
       <c r="E5" s="114" t="str">
         <f>_xll.qlSimpleQuote(D5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1X4F_Quote#0001</v>
+        <v>CNH1X4F_Quote#0000</v>
       </c>
       <c r="F5" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -19260,9 +19630,9 @@
         <f t="array" ref="R5:R31">QuoteLive</f>
         <v>0</v>
       </c>
-      <c r="S5" s="92" t="e">
+      <c r="S5" s="92">
         <f>_xll.qlSimpleQuoteSetValue(E5,R5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T5" s="80"/>
       <c r="V5" s="122"/>
@@ -19282,7 +19652,7 @@
       </c>
       <c r="E6" s="114" t="str">
         <f>_xll.qlSimpleQuote(D6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2X5F_Quote#0001</v>
+        <v>CNH2X5F_Quote#0000</v>
       </c>
       <c r="F6" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -19319,9 +19689,9 @@
       <c r="R6" s="93">
         <v>0</v>
       </c>
-      <c r="S6" s="93" t="e">
+      <c r="S6" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E6,R6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T6" s="80"/>
       <c r="V6" s="122"/>
@@ -19341,7 +19711,7 @@
       </c>
       <c r="E7" s="114" t="str">
         <f>_xll.qlSimpleQuote(D7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3X6F_Quote#0001</v>
+        <v>CNH3X6F_Quote#0000</v>
       </c>
       <c r="F7" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -19378,9 +19748,9 @@
       <c r="R7" s="93">
         <v>3.02</v>
       </c>
-      <c r="S7" s="93" t="e">
+      <c r="S7" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E7,R7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T7" s="80"/>
       <c r="V7" s="122"/>
@@ -19400,7 +19770,7 @@
       </c>
       <c r="E8" s="114" t="str">
         <f>_xll.qlSimpleQuote(D8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4X7F_Quote#0001</v>
+        <v>CNH4X7F_Quote#0000</v>
       </c>
       <c r="F8" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -19459,7 +19829,7 @@
       </c>
       <c r="E9" s="114" t="str">
         <f>_xll.qlSimpleQuote(D9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5X8F_Quote#0001</v>
+        <v>CNH5X8F_Quote#0000</v>
       </c>
       <c r="F9" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -19518,7 +19888,7 @@
       </c>
       <c r="E10" s="114" t="str">
         <f>_xll.qlSimpleQuote(D10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6X9F_Quote#0001</v>
+        <v>CNH6X9F_Quote#0000</v>
       </c>
       <c r="F10" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -19555,9 +19925,9 @@
       <c r="R10" s="93">
         <v>3.05</v>
       </c>
-      <c r="S10" s="93" t="e">
+      <c r="S10" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E10,R10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T10" s="80"/>
       <c r="V10" s="122"/>
@@ -19577,7 +19947,7 @@
       </c>
       <c r="E11" s="111" t="str">
         <f>_xll.qlSimpleQuote(D11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1X7F_Quote#0001</v>
+        <v>CNH1X7F_Quote#0000</v>
       </c>
       <c r="F11" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -19614,9 +19984,9 @@
       <c r="R11" s="92">
         <v>0</v>
       </c>
-      <c r="S11" s="92" t="e">
+      <c r="S11" s="92">
         <f>_xll.qlSimpleQuoteSetValue(E11,R11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T11" s="80"/>
       <c r="V11" s="122"/>
@@ -19636,7 +20006,7 @@
       </c>
       <c r="E12" s="114" t="str">
         <f>_xll.qlSimpleQuote(D12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2X8F_Quote#0001</v>
+        <v>CNH2X8F_Quote#0000</v>
       </c>
       <c r="F12" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -19673,9 +20043,9 @@
       <c r="R12" s="93">
         <v>0</v>
       </c>
-      <c r="S12" s="93" t="e">
+      <c r="S12" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E12,R12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T12" s="80"/>
       <c r="V12" s="122"/>
@@ -19695,7 +20065,7 @@
       </c>
       <c r="E13" s="114" t="str">
         <f>_xll.qlSimpleQuote(D13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3X9F_Quote#0001</v>
+        <v>CNH3X9F_Quote#0000</v>
       </c>
       <c r="F13" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -19732,9 +20102,9 @@
       <c r="R13" s="93">
         <v>3.05</v>
       </c>
-      <c r="S13" s="93" t="e">
+      <c r="S13" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E13,R13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T13" s="80"/>
       <c r="V13" s="122"/>
@@ -19754,7 +20124,7 @@
       </c>
       <c r="E14" s="114" t="str">
         <f>_xll.qlSimpleQuote(D14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4X10F_Quote#0001</v>
+        <v>CNH4X10F_Quote#0000</v>
       </c>
       <c r="F14" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -19813,7 +20183,7 @@
       </c>
       <c r="E15" s="114" t="str">
         <f>_xll.qlSimpleQuote(D15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5X11F_Quote#0001</v>
+        <v>CNH5X11F_Quote#0000</v>
       </c>
       <c r="F15" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -19872,7 +20242,7 @@
       </c>
       <c r="E16" s="114" t="str">
         <f>_xll.qlSimpleQuote(D16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6X12F_Quote#0001</v>
+        <v>CNH6X12F_Quote#0000</v>
       </c>
       <c r="F16" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -19909,9 +20279,9 @@
       <c r="R16" s="93">
         <v>3.08</v>
       </c>
-      <c r="S16" s="93" t="e">
+      <c r="S16" s="93">
         <f>_xll.qlSimpleQuoteSetValue(E16,R16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T16" s="80"/>
       <c r="V16" s="122"/>
@@ -19931,7 +20301,7 @@
       </c>
       <c r="E17" s="114" t="str">
         <f>_xll.qlSimpleQuote(D17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9X15F_Quote#0001</v>
+        <v>CNH9X15F_Quote#0000</v>
       </c>
       <c r="F17" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -19990,7 +20360,7 @@
       </c>
       <c r="E18" s="114" t="str">
         <f>_xll.qlSimpleQuote(D18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH12X18F_Quote#0001</v>
+        <v>CNH12X18F_Quote#0000</v>
       </c>
       <c r="F18" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -20049,7 +20419,7 @@
       </c>
       <c r="E19" s="109" t="str">
         <f>_xll.qlSimpleQuote(D19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH18X24F_Quote#0001</v>
+        <v>CNH18X24F_Quote#0000</v>
       </c>
       <c r="F19" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -20107,7 +20477,7 @@
       </c>
       <c r="E20" s="111" t="str">
         <f>_xll.qlSimpleQuote(D20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1x13F_Quote#0001</v>
+        <v>CNH1x13F_Quote#0000</v>
       </c>
       <c r="F20" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -20161,7 +20531,7 @@
       </c>
       <c r="E21" s="114" t="str">
         <f>_xll.qlSimpleQuote(D21,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2x14F_Quote#0001</v>
+        <v>CNH2x14F_Quote#0000</v>
       </c>
       <c r="F21" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -20215,7 +20585,7 @@
       </c>
       <c r="E22" s="114" t="str">
         <f>_xll.qlSimpleQuote(D22,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3x15F_Quote#0001</v>
+        <v>CNH3x15F_Quote#0000</v>
       </c>
       <c r="F22" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -20269,7 +20639,7 @@
       </c>
       <c r="E23" s="114" t="str">
         <f>_xll.qlSimpleQuote(D23,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4x16F_Quote#0001</v>
+        <v>CNH4x16F_Quote#0000</v>
       </c>
       <c r="F23" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -20323,7 +20693,7 @@
       </c>
       <c r="E24" s="114" t="str">
         <f>_xll.qlSimpleQuote(D24,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5x17F_Quote#0001</v>
+        <v>CNH5x17F_Quote#0000</v>
       </c>
       <c r="F24" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -20377,7 +20747,7 @@
       </c>
       <c r="E25" s="114" t="str">
         <f>_xll.qlSimpleQuote(D25,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6x18F_Quote#0001</v>
+        <v>CNH6x18F_Quote#0000</v>
       </c>
       <c r="F25" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -20431,7 +20801,7 @@
       </c>
       <c r="E26" s="114" t="str">
         <f>_xll.qlSimpleQuote(D26,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH7x19F_Quote#0001</v>
+        <v>CNH7x19F_Quote#0000</v>
       </c>
       <c r="F26" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -20485,7 +20855,7 @@
       </c>
       <c r="E27" s="114" t="str">
         <f>_xll.qlSimpleQuote(D27,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH8x20F_Quote#0001</v>
+        <v>CNH8x20F_Quote#0000</v>
       </c>
       <c r="F27" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -20539,7 +20909,7 @@
       </c>
       <c r="E28" s="114" t="str">
         <f>_xll.qlSimpleQuote(D28,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9x21F_Quote#0001</v>
+        <v>CNH9x21F_Quote#0000</v>
       </c>
       <c r="F28" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -20593,7 +20963,7 @@
       </c>
       <c r="E29" s="114" t="str">
         <f>_xll.qlSimpleQuote(D29,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH10x22F_Quote#0001</v>
+        <v>CNH10x22F_Quote#0000</v>
       </c>
       <c r="F29" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -20647,7 +21017,7 @@
       </c>
       <c r="E30" s="114" t="str">
         <f>_xll.qlSimpleQuote(D30,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH11x23F_Quote#0001</v>
+        <v>CNH11x23F_Quote#0000</v>
       </c>
       <c r="F30" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -20701,7 +21071,7 @@
       </c>
       <c r="E31" s="109" t="str">
         <f>_xll.qlSimpleQuote(D31,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH12x24F_Quote#0001</v>
+        <v>CNH12x24F_Quote#0000</v>
       </c>
       <c r="F31" s="116" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -20845,7 +21215,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -20893,7 +21263,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R1M_Quote#0001</v>
+        <v>CNYQM7R1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -20919,10 +21289,10 @@
         <v>CNYQM7R1M=TPSC</v>
       </c>
       <c r="N5" s="156">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O5" s="156">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="P5" s="156">
         <v>0</v>
@@ -20932,7 +21302,7 @@
       </c>
       <c r="R5" s="156">
         <f>AVERAGE(N5:O5)</f>
-        <v>3.4000000000000004</v>
+        <v>3.25</v>
       </c>
       <c r="S5" s="120"/>
       <c r="T5" s="156">
@@ -20941,11 +21311,11 @@
       <c r="U5" s="120"/>
       <c r="V5" s="156">
         <f t="array" ref="V5:V42">QuoteLive</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="W5" s="156" t="e">
+        <v>3.25</v>
+      </c>
+      <c r="W5" s="156">
         <f>_xll.qlSimpleQuoteSetValue(F5,V5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-1.5000000000000013E-3</v>
       </c>
       <c r="X5" s="80"/>
       <c r="AD5" s="122"/>
@@ -20967,7 +21337,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R3M_Quote#0001</v>
+        <v>CNYQM7R3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -20992,10 +21362,10 @@
         <v>CNYQM7R3M=TPSC</v>
       </c>
       <c r="N6" s="157">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="O6" s="157">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="P6" s="157">
         <v>0</v>
@@ -21005,7 +21375,7 @@
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R42" si="3">AVERAGE(N6:O6)</f>
-        <v>3.3899999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="S6" s="120"/>
       <c r="T6" s="157">
@@ -21013,11 +21383,11 @@
       </c>
       <c r="U6" s="120"/>
       <c r="V6" s="157">
-        <v>3.3899999999999997</v>
-      </c>
-      <c r="W6" s="157" t="e">
+        <v>3.3</v>
+      </c>
+      <c r="W6" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F6,V6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.9999999999999802E-4</v>
       </c>
       <c r="X6" s="80"/>
       <c r="AA6" s="141"/>
@@ -21040,7 +21410,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R6M_Quote#0001</v>
+        <v>CNYQM7R6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -21065,10 +21435,10 @@
         <v>CNYQM7R6M=TPSC</v>
       </c>
       <c r="N7" s="157">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="O7" s="157">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="P7" s="157">
         <v>0</v>
@@ -21078,7 +21448,7 @@
       </c>
       <c r="R7" s="157">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="S7" s="120"/>
       <c r="T7" s="157">
@@ -21086,11 +21456,11 @@
       </c>
       <c r="U7" s="120"/>
       <c r="V7" s="157">
-        <v>3.37</v>
-      </c>
-      <c r="W7" s="157" t="e">
+        <v>3.3</v>
+      </c>
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.9999999999999923E-4</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -21114,7 +21484,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R9M_Quote#0001</v>
+        <v>CNYQM7R9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -21139,10 +21509,10 @@
         <v>CNYQM7R9M=TPSC</v>
       </c>
       <c r="N8" s="157">
-        <v>3.33</v>
+        <v>3.26</v>
       </c>
       <c r="O8" s="157">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="P8" s="157">
         <v>0</v>
@@ -21152,7 +21522,7 @@
       </c>
       <c r="R8" s="157">
         <f t="shared" si="3"/>
-        <v>3.38</v>
+        <v>3.3099999999999996</v>
       </c>
       <c r="S8" s="120"/>
       <c r="T8" s="157">
@@ -21160,11 +21530,11 @@
       </c>
       <c r="U8" s="120"/>
       <c r="V8" s="157">
-        <v>3.38</v>
-      </c>
-      <c r="W8" s="157" t="e">
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -21188,7 +21558,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R1Y_Quote#0001</v>
+        <v>CNYQM7R1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -21213,10 +21583,10 @@
         <v>CNYQM7R1Y=TPSC</v>
       </c>
       <c r="N9" s="157">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="O9" s="157">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="P9" s="157">
         <v>0</v>
@@ -21226,7 +21596,7 @@
       </c>
       <c r="R9" s="157">
         <f t="shared" si="3"/>
-        <v>3.4000000000000004</v>
+        <v>3.335</v>
       </c>
       <c r="S9" s="120"/>
       <c r="T9" s="157">
@@ -21234,11 +21604,11 @@
       </c>
       <c r="U9" s="120"/>
       <c r="V9" s="157">
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="W9" s="157" t="e">
+        <v>3.335</v>
+      </c>
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -21260,7 +21630,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R2Y_Quote#0001</v>
+        <v>CNYQM7R2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -21285,10 +21655,10 @@
         <v>CNYQM7R2Y=TPSC</v>
       </c>
       <c r="N10" s="157">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="O10" s="157">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="P10" s="157">
         <v>0</v>
@@ -21298,7 +21668,7 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="S10" s="120"/>
       <c r="T10" s="157">
@@ -21306,11 +21676,11 @@
       </c>
       <c r="U10" s="120"/>
       <c r="V10" s="157">
-        <v>3.48</v>
-      </c>
-      <c r="W10" s="157" t="e">
+        <v>3.41</v>
+      </c>
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.9999999999999923E-4</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -21332,7 +21702,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R3Y_Quote#0001</v>
+        <v>CNYQM7R3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -21357,10 +21727,10 @@
         <v>CNYQM7R3Y=TPSC</v>
       </c>
       <c r="N11" s="157">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="O11" s="157">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="P11" s="157">
         <v>0</v>
@@ -21370,7 +21740,7 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="S11" s="120"/>
       <c r="T11" s="157">
@@ -21378,11 +21748,11 @@
       </c>
       <c r="U11" s="120"/>
       <c r="V11" s="157">
-        <v>3.55</v>
-      </c>
-      <c r="W11" s="157" t="e">
+        <v>3.48</v>
+      </c>
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.9999999999999923E-4</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -21404,7 +21774,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R4Y_Quote#0001</v>
+        <v>CNYQM7R4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -21429,10 +21799,10 @@
         <v>CNYQM7R4Y=TPSC</v>
       </c>
       <c r="N12" s="157">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="O12" s="157">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="P12" s="157">
         <v>0</v>
@@ -21442,7 +21812,7 @@
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>3.6100000000000003</v>
+        <v>3.5300000000000002</v>
       </c>
       <c r="S12" s="120"/>
       <c r="T12" s="157">
@@ -21450,11 +21820,11 @@
       </c>
       <c r="U12" s="120"/>
       <c r="V12" s="157">
-        <v>3.6100000000000003</v>
-      </c>
-      <c r="W12" s="157" t="e">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.9999999999999516E-4</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -21476,7 +21846,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R5Y_Quote#0001</v>
+        <v>CNYQM7R5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -21501,10 +21871,10 @@
         <v>CNYQM7R5Y=TPSC</v>
       </c>
       <c r="N13" s="157">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="O13" s="157">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="P13" s="157">
         <v>0</v>
@@ -21514,7 +21884,7 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>3.6749999999999998</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="S13" s="120"/>
       <c r="T13" s="157">
@@ -21522,11 +21892,11 @@
       </c>
       <c r="U13" s="120"/>
       <c r="V13" s="157">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="W13" s="157" t="e">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.5000000000000067E-4</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -21548,7 +21918,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R6Y_Quote#0001</v>
+        <v>CNYQM7R6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -21620,7 +21990,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R7Y_Quote#0001</v>
+        <v>CNYQM7R7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -21645,10 +22015,10 @@
         <v>CNYQM7R7Y=TPSC</v>
       </c>
       <c r="N15" s="157">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="O15" s="157">
-        <v>3.99</v>
+        <v>3.91</v>
       </c>
       <c r="P15" s="157">
         <v>0</v>
@@ -21658,7 +22028,7 @@
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>3.79</v>
+        <v>3.7149999999999999</v>
       </c>
       <c r="S15" s="120"/>
       <c r="T15" s="157">
@@ -21666,11 +22036,11 @@
       </c>
       <c r="U15" s="120"/>
       <c r="V15" s="157">
-        <v>3.79</v>
-      </c>
-      <c r="W15" s="157" t="e">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="W15" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.5000000000000761E-4</v>
       </c>
       <c r="X15" s="80"/>
       <c r="AD15" s="122"/>
@@ -21692,7 +22062,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R8Y_Quote#0001</v>
+        <v>CNYQM7R8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -21764,7 +22134,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R9Y_Quote#0001</v>
+        <v>CNYQM7R9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -21836,7 +22206,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R10Y_Quote#0001</v>
+        <v>CNYQM7R10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -21861,10 +22231,10 @@
         <v>CNYQM7R10Y=TPSC</v>
       </c>
       <c r="N18" s="157">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="O18" s="157">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="P18" s="157">
         <v>0</v>
@@ -21874,7 +22244,7 @@
       </c>
       <c r="R18" s="157">
         <f t="shared" si="3"/>
-        <v>3.875</v>
+        <v>3.8</v>
       </c>
       <c r="S18" s="120"/>
       <c r="T18" s="157">
@@ -21882,11 +22252,11 @@
       </c>
       <c r="U18" s="120"/>
       <c r="V18" s="157">
-        <v>3.875</v>
-      </c>
-      <c r="W18" s="157" t="e">
+        <v>3.8</v>
+      </c>
+      <c r="W18" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F18,V18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X18" s="80"/>
       <c r="AD18" s="122"/>
@@ -21908,7 +22278,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R11Y_Quote#0001</v>
+        <v>CNYQM7R11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -21980,7 +22350,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R12Y_Quote#0001</v>
+        <v>CNYQM7R12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -22052,7 +22422,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R13Y_Quote#0001</v>
+        <v>CNYQM7R13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -22124,7 +22494,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R14Y_Quote#0001</v>
+        <v>CNYQM7R14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -22196,7 +22566,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R15Y_Quote#0001</v>
+        <v>CNYQM7R15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -22221,10 +22591,10 @@
         <v>CNYQM7R15Y=TPSC</v>
       </c>
       <c r="N23" s="157">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="O23" s="157">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="P23" s="157">
         <v>0</v>
@@ -22234,7 +22604,7 @@
       </c>
       <c r="R23" s="157">
         <f t="shared" si="3"/>
-        <v>4.0949999999999998</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="S23" s="120"/>
       <c r="T23" s="157" t="e">
@@ -22242,11 +22612,11 @@
       </c>
       <c r="U23" s="120"/>
       <c r="V23" s="157">
-        <v>4.0949999999999998</v>
-      </c>
-      <c r="W23" s="157" t="e">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="W23" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F23,V23/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X23" s="80"/>
       <c r="AD23" s="122"/>
@@ -22268,7 +22638,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R16Y_Quote#0001</v>
+        <v>CNYQM7R16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -22340,7 +22710,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R17Y_Quote#0001</v>
+        <v>CNYQM7R17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -22412,7 +22782,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R18Y_Quote#0001</v>
+        <v>CNYQM7R18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -22484,7 +22854,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R19Y_Quote#0001</v>
+        <v>CNYQM7R19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -22556,7 +22926,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R20Y_Quote#0001</v>
+        <v>CNYQM7R20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -22628,7 +22998,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R21Y_Quote#0001</v>
+        <v>CNYQM7R21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -22700,7 +23070,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R22Y_Quote#0001</v>
+        <v>CNYQM7R22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -22772,7 +23142,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R23Y_Quote#0001</v>
+        <v>CNYQM7R23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -22844,7 +23214,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R24Y_Quote#0001</v>
+        <v>CNYQM7R24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -22916,7 +23286,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R25Y_Quote#0001</v>
+        <v>CNYQM7R25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -22988,7 +23358,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R26Y_Quote#0001</v>
+        <v>CNYQM7R26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -23060,7 +23430,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R27Y_Quote#0001</v>
+        <v>CNYQM7R27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -23132,7 +23502,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R28Y_Quote#0001</v>
+        <v>CNYQM7R28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -23204,7 +23574,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R29Y_Quote#0001</v>
+        <v>CNYQM7R29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -23276,7 +23646,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R30Y_Quote#0001</v>
+        <v>CNYQM7R30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -23348,7 +23718,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R35Y_Quote#0001</v>
+        <v>CNYQM7R35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -23420,7 +23790,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R40Y_Quote#0001</v>
+        <v>CNYQM7R40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -23492,7 +23862,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R50Y_Quote#0001</v>
+        <v>CNYQM7R50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -23564,7 +23934,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYQM7R60Y_Quote#0001</v>
+        <v>CNYQM7R60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -23711,7 +24081,7 @@
       <c r="U3" s="80"/>
       <c r="W3" s="78">
         <f>_xll.ohTrigger(W5:W42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3" s="80"/>
     </row>
@@ -23737,7 +24107,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:09</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -23785,7 +24155,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(E5,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS1M_Quote#0001</v>
+        <v>CNNDIRS1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -23811,10 +24181,10 @@
         <v>CNNDIRS1M=TRHK</v>
       </c>
       <c r="N5" s="156">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O5" s="156">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="P5" s="156">
         <v>0</v>
@@ -23824,7 +24194,7 @@
       </c>
       <c r="R5" s="156">
         <f>AVERAGE(N5:O5)</f>
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="S5" s="120"/>
       <c r="T5" s="156">
@@ -23833,11 +24203,11 @@
       <c r="U5" s="120"/>
       <c r="V5" s="156">
         <f t="array" ref="V5:V42">QuoteLive</f>
-        <v>3.3</v>
-      </c>
-      <c r="W5" s="156" t="e">
+        <v>3.27</v>
+      </c>
+      <c r="W5" s="156">
         <f>_xll.qlSimpleQuoteSetValue(F5,V5/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="X5" s="80"/>
       <c r="AD5" s="122"/>
@@ -23859,7 +24229,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(E6,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS3M_Quote#0001</v>
+        <v>CNNDIRS3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -23884,10 +24254,10 @@
         <v>CNNDIRS3M=TRHK</v>
       </c>
       <c r="N6" s="157">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="O6" s="157">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="P6" s="157">
         <v>0</v>
@@ -23897,7 +24267,7 @@
       </c>
       <c r="R6" s="157">
         <f t="shared" ref="R6:R42" si="3">AVERAGE(N6:O6)</f>
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="S6" s="120"/>
       <c r="T6" s="157">
@@ -23905,11 +24275,11 @@
       </c>
       <c r="U6" s="120"/>
       <c r="V6" s="157">
-        <v>3.21</v>
-      </c>
-      <c r="W6" s="157" t="e">
+        <v>3.24</v>
+      </c>
+      <c r="W6" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F6,V6/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>3.0000000000000859E-4</v>
       </c>
       <c r="X6" s="80"/>
       <c r="AA6" s="141"/>
@@ -23932,7 +24302,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(E7,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS6M_Quote#0001</v>
+        <v>CNNDIRS6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -23957,10 +24327,10 @@
         <v>CNNDIRS6M=TRHK</v>
       </c>
       <c r="N7" s="157">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="O7" s="157">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="P7" s="157">
         <v>0</v>
@@ -23970,7 +24340,7 @@
       </c>
       <c r="R7" s="157">
         <f t="shared" si="3"/>
-        <v>3.26</v>
+        <v>3.1900000000000004</v>
       </c>
       <c r="S7" s="120"/>
       <c r="T7" s="157">
@@ -23978,11 +24348,11 @@
       </c>
       <c r="U7" s="120"/>
       <c r="V7" s="157">
-        <v>3.26</v>
-      </c>
-      <c r="W7" s="157" t="e">
+        <v>3.1900000000000004</v>
+      </c>
+      <c r="W7" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F7,V7/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.999999999999923E-4</v>
       </c>
       <c r="X7" s="80"/>
       <c r="AA7" s="141"/>
@@ -24006,7 +24376,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(E8,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS9M_Quote#0001</v>
+        <v>CNNDIRS9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -24031,10 +24401,10 @@
         <v>CNNDIRS9M=TRHK</v>
       </c>
       <c r="N8" s="157">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O8" s="157">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="P8" s="157">
         <v>0</v>
@@ -24044,7 +24414,7 @@
       </c>
       <c r="R8" s="157">
         <f t="shared" si="3"/>
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="S8" s="120"/>
       <c r="T8" s="157">
@@ -24052,11 +24422,11 @@
       </c>
       <c r="U8" s="120"/>
       <c r="V8" s="157">
-        <v>3.27</v>
-      </c>
-      <c r="W8" s="157" t="e">
+        <v>3.2</v>
+      </c>
+      <c r="W8" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F8,V8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.9999999999999923E-4</v>
       </c>
       <c r="X8" s="80"/>
       <c r="AB8" s="141"/>
@@ -24080,7 +24450,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(E9,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS1Y_Quote#0001</v>
+        <v>CNNDIRS1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -24105,10 +24475,10 @@
         <v>CNNDIRS1Y=TRHK</v>
       </c>
       <c r="N9" s="157">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="O9" s="157">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="P9" s="157">
         <v>0</v>
@@ -24118,7 +24488,7 @@
       </c>
       <c r="R9" s="157">
         <f t="shared" si="3"/>
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="S9" s="120"/>
       <c r="T9" s="157">
@@ -24126,11 +24496,11 @@
       </c>
       <c r="U9" s="120"/>
       <c r="V9" s="157">
-        <v>3.29</v>
-      </c>
-      <c r="W9" s="157" t="e">
+        <v>3.21</v>
+      </c>
+      <c r="W9" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F9,V9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.000000000000021E-4</v>
       </c>
       <c r="X9" s="80"/>
       <c r="AD9" s="122"/>
@@ -24152,7 +24522,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(E10,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS2Y_Quote#0001</v>
+        <v>CNNDIRS2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -24177,10 +24547,10 @@
         <v>CNNDIRS2Y=TRHK</v>
       </c>
       <c r="N10" s="157">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="O10" s="157">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="P10" s="157">
         <v>0</v>
@@ -24190,7 +24560,7 @@
       </c>
       <c r="R10" s="157">
         <f t="shared" si="3"/>
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="S10" s="120"/>
       <c r="T10" s="157">
@@ -24198,11 +24568,11 @@
       </c>
       <c r="U10" s="120"/>
       <c r="V10" s="157">
-        <v>3.33</v>
-      </c>
-      <c r="W10" s="157" t="e">
+        <v>3.25</v>
+      </c>
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.000000000000021E-4</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -24224,7 +24594,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(E11,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS3Y_Quote#0001</v>
+        <v>CNNDIRS3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -24249,10 +24619,10 @@
         <v>CNNDIRS3Y=TRHK</v>
       </c>
       <c r="N11" s="157">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="O11" s="157">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="P11" s="157">
         <v>0</v>
@@ -24262,7 +24632,7 @@
       </c>
       <c r="R11" s="157">
         <f t="shared" si="3"/>
-        <v>3.38</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="S11" s="120"/>
       <c r="T11" s="157">
@@ -24270,11 +24640,11 @@
       </c>
       <c r="U11" s="120"/>
       <c r="V11" s="157">
-        <v>3.38</v>
-      </c>
-      <c r="W11" s="157" t="e">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -24296,7 +24666,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(E12,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS4Y_Quote#0001</v>
+        <v>CNNDIRS4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -24321,10 +24691,10 @@
         <v>CNNDIRS4Y=TRHK</v>
       </c>
       <c r="N12" s="157">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="O12" s="157">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="P12" s="157">
         <v>0</v>
@@ -24334,7 +24704,7 @@
       </c>
       <c r="R12" s="157">
         <f t="shared" si="3"/>
-        <v>3.4400000000000004</v>
+        <v>3.38</v>
       </c>
       <c r="S12" s="120"/>
       <c r="T12" s="157">
@@ -24342,11 +24712,11 @@
       </c>
       <c r="U12" s="120"/>
       <c r="V12" s="157">
-        <v>3.4400000000000004</v>
-      </c>
-      <c r="W12" s="157" t="e">
+        <v>3.38</v>
+      </c>
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-6.0000000000001025E-4</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -24368,7 +24738,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(E13,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS5Y_Quote#0001</v>
+        <v>CNNDIRS5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -24393,10 +24763,10 @@
         <v>CNNDIRS5Y=TRHK</v>
       </c>
       <c r="N13" s="157">
-        <v>3.47</v>
+        <v>3.39</v>
       </c>
       <c r="O13" s="157">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="P13" s="157">
         <v>0</v>
@@ -24406,7 +24776,7 @@
       </c>
       <c r="R13" s="157">
         <f t="shared" si="3"/>
-        <v>3.52</v>
+        <v>3.4400000000000004</v>
       </c>
       <c r="S13" s="120"/>
       <c r="T13" s="157">
@@ -24414,11 +24784,11 @@
       </c>
       <c r="U13" s="120"/>
       <c r="V13" s="157">
-        <v>3.52</v>
-      </c>
-      <c r="W13" s="157" t="e">
+        <v>3.4400000000000004</v>
+      </c>
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.9999999999999516E-4</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -24440,7 +24810,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(E14,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS6Y_Quote#0001</v>
+        <v>CNNDIRS6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -24465,10 +24835,10 @@
         <v>CNNDIRS6Y=TRHK</v>
       </c>
       <c r="N14" s="157">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="O14" s="157">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="P14" s="157">
         <v>0</v>
@@ -24478,7 +24848,7 @@
       </c>
       <c r="R14" s="157">
         <f t="shared" si="3"/>
-        <v>3.5999999999999996</v>
+        <v>3.52</v>
       </c>
       <c r="S14" s="120"/>
       <c r="T14" s="157">
@@ -24486,11 +24856,11 @@
       </c>
       <c r="U14" s="120"/>
       <c r="V14" s="157">
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="W14" s="157" t="e">
+        <v>3.52</v>
+      </c>
+      <c r="W14" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F14,V14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.9999999999999516E-4</v>
       </c>
       <c r="X14" s="80"/>
       <c r="AD14" s="122"/>
@@ -24512,7 +24882,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(E15,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS7Y_Quote#0001</v>
+        <v>CNNDIRS7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -24537,10 +24907,10 @@
         <v>CNNDIRS7Y=TRHK</v>
       </c>
       <c r="N15" s="157">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="O15" s="157">
-        <v>3.71</v>
+        <v>3.63</v>
       </c>
       <c r="P15" s="157">
         <v>0</v>
@@ -24550,7 +24920,7 @@
       </c>
       <c r="R15" s="157">
         <f t="shared" si="3"/>
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="S15" s="120"/>
       <c r="T15" s="157">
@@ -24558,11 +24928,11 @@
       </c>
       <c r="U15" s="120"/>
       <c r="V15" s="157">
-        <v>3.66</v>
-      </c>
-      <c r="W15" s="157" t="e">
+        <v>3.58</v>
+      </c>
+      <c r="W15" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F15,V15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.000000000000021E-4</v>
       </c>
       <c r="X15" s="80"/>
       <c r="AD15" s="122"/>
@@ -24584,7 +24954,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(E16,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS8Y_Quote#0001</v>
+        <v>CNNDIRS8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -24609,10 +24979,10 @@
         <v>CNNDIRS8Y=TRHK</v>
       </c>
       <c r="N16" s="157">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="O16" s="157">
-        <v>3.75</v>
+        <v>3.67</v>
       </c>
       <c r="P16" s="157">
         <v>0</v>
@@ -24622,7 +24992,7 @@
       </c>
       <c r="R16" s="157">
         <f t="shared" si="3"/>
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="S16" s="120"/>
       <c r="T16" s="157">
@@ -24630,11 +25000,11 @@
       </c>
       <c r="U16" s="120"/>
       <c r="V16" s="157">
-        <v>3.7</v>
-      </c>
-      <c r="W16" s="157" t="e">
+        <v>3.62</v>
+      </c>
+      <c r="W16" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F16,V16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.000000000000021E-4</v>
       </c>
       <c r="X16" s="80"/>
       <c r="AD16" s="122"/>
@@ -24656,7 +25026,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(E17,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS9Y_Quote#0001</v>
+        <v>CNNDIRS9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -24681,10 +25051,10 @@
         <v>CNNDIRS9Y=TRHK</v>
       </c>
       <c r="N17" s="157">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="O17" s="157">
-        <v>3.79</v>
+        <v>3.71</v>
       </c>
       <c r="P17" s="157">
         <v>0</v>
@@ -24694,7 +25064,7 @@
       </c>
       <c r="R17" s="157">
         <f t="shared" si="3"/>
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="S17" s="120"/>
       <c r="T17" s="157">
@@ -24702,11 +25072,11 @@
       </c>
       <c r="U17" s="120"/>
       <c r="V17" s="157">
-        <v>3.74</v>
-      </c>
-      <c r="W17" s="157" t="e">
+        <v>3.66</v>
+      </c>
+      <c r="W17" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F17,V17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-8.000000000000021E-4</v>
       </c>
       <c r="X17" s="80"/>
       <c r="AD17" s="122"/>
@@ -24728,7 +25098,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(E18,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS10Y_Quote#0001</v>
+        <v>CNNDIRS10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -24753,10 +25123,10 @@
         <v>CNNDIRS10Y=TRHK</v>
       </c>
       <c r="N18" s="157">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="O18" s="157">
-        <v>3.82</v>
+        <v>3.74</v>
       </c>
       <c r="P18" s="157">
         <v>0</v>
@@ -24766,7 +25136,7 @@
       </c>
       <c r="R18" s="157">
         <f t="shared" si="3"/>
-        <v>3.77</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="S18" s="120"/>
       <c r="T18" s="157">
@@ -24774,11 +25144,11 @@
       </c>
       <c r="U18" s="120"/>
       <c r="V18" s="157">
-        <v>3.77</v>
-      </c>
-      <c r="W18" s="157" t="e">
+        <v>3.6900000000000004</v>
+      </c>
+      <c r="W18" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F18,V18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-7.9999999999999516E-4</v>
       </c>
       <c r="X18" s="80"/>
       <c r="AD18" s="122"/>
@@ -24800,7 +25170,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(E19,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS11Y_Quote#0001</v>
+        <v>CNNDIRS11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -24872,7 +25242,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(E20,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS12Y_Quote#0001</v>
+        <v>CNNDIRS12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -24944,7 +25314,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(E21,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS13Y_Quote#0001</v>
+        <v>CNNDIRS13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -25016,7 +25386,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(E22,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS14Y_Quote#0001</v>
+        <v>CNNDIRS14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -25088,7 +25458,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(E23,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS15Y_Quote#0001</v>
+        <v>CNNDIRS15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -25160,7 +25530,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(E24,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS16Y_Quote#0001</v>
+        <v>CNNDIRS16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -25232,7 +25602,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(E25,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS17Y_Quote#0001</v>
+        <v>CNNDIRS17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -25304,7 +25674,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(E26,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS18Y_Quote#0001</v>
+        <v>CNNDIRS18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -25376,7 +25746,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(E27,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS19Y_Quote#0001</v>
+        <v>CNNDIRS19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -25448,7 +25818,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(E28,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS20Y_Quote#0001</v>
+        <v>CNNDIRS20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -25520,7 +25890,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(E29,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS21Y_Quote#0001</v>
+        <v>CNNDIRS21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -25592,7 +25962,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(E30,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS22Y_Quote#0001</v>
+        <v>CNNDIRS22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -25664,7 +26034,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(E31,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS23Y_Quote#0001</v>
+        <v>CNNDIRS23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -25736,7 +26106,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(E32,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS24Y_Quote#0001</v>
+        <v>CNNDIRS24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -25808,7 +26178,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(E33,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS25Y_Quote#0001</v>
+        <v>CNNDIRS25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -25880,7 +26250,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(E34,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS26Y_Quote#0001</v>
+        <v>CNNDIRS26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -25952,7 +26322,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(E35,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS27Y_Quote#0001</v>
+        <v>CNNDIRS27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -26024,7 +26394,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(E36,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS28Y_Quote#0001</v>
+        <v>CNNDIRS28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -26096,7 +26466,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(E37,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS29Y_Quote#0001</v>
+        <v>CNNDIRS29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -26168,7 +26538,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(E38,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS30Y_Quote#0001</v>
+        <v>CNNDIRS30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -26240,7 +26610,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(E39,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS35Y_Quote#0001</v>
+        <v>CNNDIRS35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -26312,7 +26682,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(E40,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS40Y_Quote#0001</v>
+        <v>CNNDIRS40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -26384,7 +26754,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(E41,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS50Y_Quote#0001</v>
+        <v>CNNDIRS50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -26456,7 +26826,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(E42,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNNDIRS60Y_Quote#0001</v>
+        <v>CNNDIRS60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -26627,7 +26997,7 @@
       <c r="L4" s="91"/>
       <c r="M4" s="125" t="str">
         <f>_xll.RData(M5:M42,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 18:24:56</v>
+        <v>Updated at 15:26:10</v>
       </c>
       <c r="N4" s="151" t="s">
         <v>74</v>
@@ -26675,7 +27045,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L1M_Quote#0001</v>
+        <v>CNYAM1L1M_Quote#0000</v>
       </c>
       <c r="G5" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -26749,7 +27119,7 @@
       </c>
       <c r="F6" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L3M_Quote#0001</v>
+        <v>CNYAM1L3M_Quote#0000</v>
       </c>
       <c r="G6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -26822,7 +27192,7 @@
       </c>
       <c r="F7" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L6M_Quote#0001</v>
+        <v>CNYAM1L6M_Quote#0000</v>
       </c>
       <c r="G7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -26896,7 +27266,7 @@
       </c>
       <c r="F8" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L9M_Quote#0001</v>
+        <v>CNYAM1L9M_Quote#0000</v>
       </c>
       <c r="G8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -26970,7 +27340,7 @@
       </c>
       <c r="F9" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L1Y_Quote#0001</v>
+        <v>CNYAM1L1Y_Quote#0000</v>
       </c>
       <c r="G9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -27042,7 +27412,7 @@
       </c>
       <c r="F10" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L2Y_Quote#0001</v>
+        <v>CNYAM1L2Y_Quote#0000</v>
       </c>
       <c r="G10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -27090,9 +27460,9 @@
       <c r="V10" s="157">
         <v>5.9</v>
       </c>
-      <c r="W10" s="157" t="e">
+      <c r="W10" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F10,V10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X10" s="80"/>
       <c r="AD10" s="122"/>
@@ -27114,7 +27484,7 @@
       </c>
       <c r="F11" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L3Y_Quote#0001</v>
+        <v>CNYAM1L3Y_Quote#0000</v>
       </c>
       <c r="G11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -27162,9 +27532,9 @@
       <c r="V11" s="157">
         <v>5.68</v>
       </c>
-      <c r="W11" s="157" t="e">
+      <c r="W11" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F11,V11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X11" s="80"/>
       <c r="AD11" s="122"/>
@@ -27186,7 +27556,7 @@
       </c>
       <c r="F12" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L4Y_Quote#0001</v>
+        <v>CNYAM1L4Y_Quote#0000</v>
       </c>
       <c r="G12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -27234,9 +27604,9 @@
       <c r="V12" s="157">
         <v>5.49</v>
       </c>
-      <c r="W12" s="157" t="e">
+      <c r="W12" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F12,V12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X12" s="80"/>
       <c r="AD12" s="122"/>
@@ -27258,7 +27628,7 @@
       </c>
       <c r="F13" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L5Y_Quote#0001</v>
+        <v>CNYAM1L5Y_Quote#0000</v>
       </c>
       <c r="G13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -27306,9 +27676,9 @@
       <c r="V13" s="157">
         <v>5.4</v>
       </c>
-      <c r="W13" s="157" t="e">
+      <c r="W13" s="157">
         <f>_xll.qlSimpleQuoteSetValue(F13,V13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="X13" s="80"/>
       <c r="AD13" s="122"/>
@@ -27330,7 +27700,7 @@
       </c>
       <c r="F14" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L6Y_Quote#0001</v>
+        <v>CNYAM1L6Y_Quote#0000</v>
       </c>
       <c r="G14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -27402,7 +27772,7 @@
       </c>
       <c r="F15" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L7Y_Quote#0001</v>
+        <v>CNYAM1L7Y_Quote#0000</v>
       </c>
       <c r="G15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -27474,7 +27844,7 @@
       </c>
       <c r="F16" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L8Y_Quote#0001</v>
+        <v>CNYAM1L8Y_Quote#0000</v>
       </c>
       <c r="G16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -27546,7 +27916,7 @@
       </c>
       <c r="F17" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L9Y_Quote#0001</v>
+        <v>CNYAM1L9Y_Quote#0000</v>
       </c>
       <c r="G17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -27618,7 +27988,7 @@
       </c>
       <c r="F18" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L10Y_Quote#0001</v>
+        <v>CNYAM1L10Y_Quote#0000</v>
       </c>
       <c r="G18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -27690,7 +28060,7 @@
       </c>
       <c r="F19" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L11Y_Quote#0001</v>
+        <v>CNYAM1L11Y_Quote#0000</v>
       </c>
       <c r="G19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -27762,7 +28132,7 @@
       </c>
       <c r="F20" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L12Y_Quote#0001</v>
+        <v>CNYAM1L12Y_Quote#0000</v>
       </c>
       <c r="G20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -27834,7 +28204,7 @@
       </c>
       <c r="F21" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L13Y_Quote#0001</v>
+        <v>CNYAM1L13Y_Quote#0000</v>
       </c>
       <c r="G21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -27906,7 +28276,7 @@
       </c>
       <c r="F22" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L14Y_Quote#0001</v>
+        <v>CNYAM1L14Y_Quote#0000</v>
       </c>
       <c r="G22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -27978,7 +28348,7 @@
       </c>
       <c r="F23" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L15Y_Quote#0001</v>
+        <v>CNYAM1L15Y_Quote#0000</v>
       </c>
       <c r="G23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -28050,7 +28420,7 @@
       </c>
       <c r="F24" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L16Y_Quote#0001</v>
+        <v>CNYAM1L16Y_Quote#0000</v>
       </c>
       <c r="G24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -28122,7 +28492,7 @@
       </c>
       <c r="F25" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L17Y_Quote#0001</v>
+        <v>CNYAM1L17Y_Quote#0000</v>
       </c>
       <c r="G25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -28194,7 +28564,7 @@
       </c>
       <c r="F26" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L18Y_Quote#0001</v>
+        <v>CNYAM1L18Y_Quote#0000</v>
       </c>
       <c r="G26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -28266,7 +28636,7 @@
       </c>
       <c r="F27" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L19Y_Quote#0001</v>
+        <v>CNYAM1L19Y_Quote#0000</v>
       </c>
       <c r="G27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -28338,7 +28708,7 @@
       </c>
       <c r="F28" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L20Y_Quote#0001</v>
+        <v>CNYAM1L20Y_Quote#0000</v>
       </c>
       <c r="G28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -28410,7 +28780,7 @@
       </c>
       <c r="F29" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L21Y_Quote#0001</v>
+        <v>CNYAM1L21Y_Quote#0000</v>
       </c>
       <c r="G29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -28482,7 +28852,7 @@
       </c>
       <c r="F30" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L22Y_Quote#0001</v>
+        <v>CNYAM1L22Y_Quote#0000</v>
       </c>
       <c r="G30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -28554,7 +28924,7 @@
       </c>
       <c r="F31" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L23Y_Quote#0001</v>
+        <v>CNYAM1L23Y_Quote#0000</v>
       </c>
       <c r="G31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -28626,7 +28996,7 @@
       </c>
       <c r="F32" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L24Y_Quote#0001</v>
+        <v>CNYAM1L24Y_Quote#0000</v>
       </c>
       <c r="G32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -28698,7 +29068,7 @@
       </c>
       <c r="F33" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L25Y_Quote#0001</v>
+        <v>CNYAM1L25Y_Quote#0000</v>
       </c>
       <c r="G33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -28770,7 +29140,7 @@
       </c>
       <c r="F34" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L26Y_Quote#0001</v>
+        <v>CNYAM1L26Y_Quote#0000</v>
       </c>
       <c r="G34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -28842,7 +29212,7 @@
       </c>
       <c r="F35" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L27Y_Quote#0001</v>
+        <v>CNYAM1L27Y_Quote#0000</v>
       </c>
       <c r="G35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -28914,7 +29284,7 @@
       </c>
       <c r="F36" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L28Y_Quote#0001</v>
+        <v>CNYAM1L28Y_Quote#0000</v>
       </c>
       <c r="G36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -28986,7 +29356,7 @@
       </c>
       <c r="F37" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L29Y_Quote#0001</v>
+        <v>CNYAM1L29Y_Quote#0000</v>
       </c>
       <c r="G37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -29058,7 +29428,7 @@
       </c>
       <c r="F38" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L30Y_Quote#0001</v>
+        <v>CNYAM1L30Y_Quote#0000</v>
       </c>
       <c r="G38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -29130,7 +29500,7 @@
       </c>
       <c r="F39" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L35Y_Quote#0001</v>
+        <v>CNYAM1L35Y_Quote#0000</v>
       </c>
       <c r="G39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -29202,7 +29572,7 @@
       </c>
       <c r="F40" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L40Y_Quote#0001</v>
+        <v>CNYAM1L40Y_Quote#0000</v>
       </c>
       <c r="G40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -29274,7 +29644,7 @@
       </c>
       <c r="F41" s="86" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L50Y_Quote#0001</v>
+        <v>CNYAM1L50Y_Quote#0000</v>
       </c>
       <c r="G41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -29346,7 +29716,7 @@
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(OnCurrency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,OnRateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNYAM1L60Y_Quote#0001</v>
+        <v>CNYAM1L60Y_Quote#0000</v>
       </c>
       <c r="G42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
